--- a/Results/daily_return/df_portfolio_best_daily.xlsx
+++ b/Results/daily_return/df_portfolio_best_daily.xlsx
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01924155764528257</v>
+        <v>0.01492734624981715</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4589,7 +4589,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.007287948642778683</v>
+        <v>0.003103784890366119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4597,7 +4597,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.01349637056629707</v>
+        <v>-0.0002344016451647226</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4605,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.008496155888087571</v>
+        <v>-0.007166805905288663</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-0.0009546067482840099</v>
+        <v>-0.004058339585843042</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4621,7 +4621,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.007663844558687976</v>
+        <v>0.005554643664997907</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4629,7 +4629,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.002555098264885521</v>
+        <v>0.001568812748674338</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4637,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.008748149236206542</v>
+        <v>0.01012153570042723</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4645,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.003029738711411548</v>
+        <v>0.007314325624980361</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4653,7 +4653,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.00570433014534568</v>
+        <v>-0.001504393981343357</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4661,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-0.02327711295683406</v>
+        <v>-0.01900724960653617</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4669,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-0.005077710725068443</v>
+        <v>-0.0006823917724683583</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4677,7 +4677,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.006936249937797095</v>
+        <v>-0.006741215376862829</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4685,7 +4685,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.001076753065181446</v>
+        <v>-0.0001920567480205846</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4693,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.0004447821504797007</v>
+        <v>0.0008814110083554842</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4701,7 +4701,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.01339453477750579</v>
+        <v>0.0103528972816193</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4709,7 +4709,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.002565578548279399</v>
+        <v>-0.001037695455262515</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4717,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.005395831260213825</v>
+        <v>-0.004293995141678454</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4725,7 +4725,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.02407310539018566</v>
+        <v>-0.02246604174209618</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4733,7 +4733,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.002822045464517373</v>
+        <v>0.002481527515948295</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4741,7 +4741,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.004720395468642294</v>
+        <v>0.002746121693727679</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4749,7 +4749,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.007714467448605878</v>
+        <v>-0.005800529171333228</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4757,7 +4757,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.008293661441405007</v>
+        <v>0.001155526894245849</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4765,7 +4765,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.01902576901014463</v>
+        <v>0.004005703850940262</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4773,7 +4773,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.005824787098533552</v>
+        <v>0.001534302086637175</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4781,7 +4781,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.00126115738068575</v>
+        <v>-0.001029085164255964</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4789,7 +4789,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.01283811794633467</v>
+        <v>0.01473498905971454</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4797,7 +4797,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.01186584963855149</v>
+        <v>0.009394286904971724</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4805,7 +4805,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.001773312728041239</v>
+        <v>0.001071756118258272</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4813,7 +4813,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.007723969480909623</v>
+        <v>0.01400497497445681</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4821,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.001558032943054408</v>
+        <v>0.005870928861735856</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4829,7 +4829,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.002266598930408053</v>
+        <v>0.002416798996115212</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4837,7 +4837,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.008400642847244537</v>
+        <v>0.0131123966398262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4845,7 +4845,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.01146027802751079</v>
+        <v>0.006499642180676724</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4853,7 +4853,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.004774870173250474</v>
+        <v>0.007887893274075963</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4861,7 +4861,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-0.002239380466359951</v>
+        <v>0.000568556519992458</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4869,7 +4869,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-0.003386131450119238</v>
+        <v>-0.008527580847299781</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4877,7 +4877,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.0219123066493296</v>
+        <v>-0.01230386299810644</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4885,7 +4885,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-0.008420303762586319</v>
+        <v>-0.0006259843613167792</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4893,7 +4893,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.007672270897212953</v>
+        <v>0.004605712017796604</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4901,7 +4901,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.008461537776827968</v>
+        <v>-0.005973852351629998</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4909,7 +4909,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.0007928820058383736</v>
+        <v>0.000723888196126795</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4917,7 +4917,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00622888794785873</v>
+        <v>0.007309342639923385</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4925,7 +4925,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.0006990527804982499</v>
+        <v>-0.006323541493984207</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4933,7 +4933,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.01632635895038544</v>
+        <v>0.002384077020980924</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4941,7 +4941,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.01527425481476721</v>
+        <v>0.007395677525208224</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4949,7 +4949,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.01555482605576452</v>
+        <v>-0.01040501736388374</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4957,7 +4957,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.02133481730314325</v>
+        <v>-0.01774066449400074</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.01586868702550069</v>
+        <v>-0.003430908523381119</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4973,7 +4973,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.0183803286760241</v>
+        <v>0.02488601569970231</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4981,7 +4981,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.01232202753052884</v>
+        <v>0.009327338318577134</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4989,7 +4989,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.008007011473576874</v>
+        <v>0.006287400028499762</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4997,7 +4997,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-0.01401287348561922</v>
+        <v>-0.02180691747225776</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5005,7 +5005,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.01132206857645645</v>
+        <v>0.003903455177051678</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5013,7 +5013,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.01271035605946108</v>
+        <v>-0.003800917430541457</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5021,7 +5021,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.01099126651684571</v>
+        <v>0.003443804405904925</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -5029,7 +5029,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00113723155435836</v>
+        <v>0.005604082195384838</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5037,7 +5037,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.007419352870423191</v>
+        <v>0.001763613208016614</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5045,7 +5045,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-0.005080040676774969</v>
+        <v>-0.006581440680800138</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5053,7 +5053,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.004094339466786309</v>
+        <v>0.006981578614088988</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5061,7 +5061,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-0.0036644582547801</v>
+        <v>-0.02540132122384224</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5069,7 +5069,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-0.0007940197019398997</v>
+        <v>0.003006108309910647</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5077,7 +5077,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.007385820704582299</v>
+        <v>0.01656358047492568</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5085,7 +5085,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-0.005121849535416554</v>
+        <v>-0.005165172894201838</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5093,7 +5093,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.0175610676083063</v>
+        <v>-0.007280473417610765</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5101,7 +5101,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-0.0009010737882816957</v>
+        <v>0.000909971459330574</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5109,7 +5109,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.0008089009297873829</v>
+        <v>7.459673583191289e-05</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5117,7 +5117,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.001070421030456108</v>
+        <v>-0.004601989516687019</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5125,7 +5125,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.003698248664233408</v>
+        <v>0.001433237093230691</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5133,7 +5133,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.0151403371673979</v>
+        <v>-0.01258039855896493</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5141,7 +5141,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.00796827039572616</v>
+        <v>0.01788223851108205</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5149,7 +5149,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.002538238995770698</v>
+        <v>0.002396073609904113</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5157,7 +5157,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.008386396312962884</v>
+        <v>0.005765939316154534</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5165,7 +5165,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.009482911389746098</v>
+        <v>0.007836107057927231</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5173,7 +5173,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-0.009166985503028795</v>
+        <v>-0.001013331220323913</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5181,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.004793102901619066</v>
+        <v>0.002377256308711344</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5189,7 +5189,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.005344750534340617</v>
+        <v>-0.006026357411305172</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5197,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-0.003412259641087241</v>
+        <v>-0.007782368712389015</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5205,7 +5205,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.0007845422143868703</v>
+        <v>0.00186212390223014</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5213,7 +5213,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.01777608270134853</v>
+        <v>0.01291112492825633</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5221,7 +5221,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-0.009612832002962113</v>
+        <v>0.005037600779111181</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5229,7 +5229,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-0.006360733950655959</v>
+        <v>-0.003006815922647697</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5237,7 +5237,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.009343799544799292</v>
+        <v>-0.003975838971034706</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5245,7 +5245,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.005102479131795592</v>
+        <v>0.003728881810019025</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5269,7 +5269,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-0.002165892370179538</v>
+        <v>0.002276552417230137</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5277,7 +5277,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-0.00533265054686552</v>
+        <v>0.001326169862187573</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5285,7 +5285,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.0008761929152978042</v>
+        <v>0.0031516577181394</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5293,7 +5293,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-0.008605481389921236</v>
+        <v>-0.005286026947180243</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5301,7 +5301,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.01028888070314833</v>
+        <v>0.007676939666398146</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5309,7 +5309,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-0.005334731381012738</v>
+        <v>0.001442406484164398</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5317,7 +5317,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.0067198335172607</v>
+        <v>0.00926241978630701</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5325,7 +5325,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-0.00679162486404202</v>
+        <v>-0.01204692844362664</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5333,7 +5333,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-0.008737515694351619</v>
+        <v>-0.003890855907762661</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5341,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.02254805506504702</v>
+        <v>0.01519373992367236</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5349,7 +5349,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-0.001533431662028254</v>
+        <v>0.006471954916957724</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5357,7 +5357,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.01018584738258851</v>
+        <v>0.006456767878476617</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5365,7 +5365,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.01286206541274344</v>
+        <v>0.005904653611665743</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5373,7 +5373,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.008003468785418551</v>
+        <v>0.007047452785365862</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5381,7 +5381,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.0125140705279513</v>
+        <v>0.01072846770152429</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5389,7 +5389,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.01063049650625306</v>
+        <v>-0.0006451467665477443</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5397,7 +5397,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.003302407942562238</v>
+        <v>0.00771975748952128</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5405,7 +5405,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-0.0007045318478325262</v>
+        <v>0.001308013661819858</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5413,7 +5413,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-0.0007898128381514681</v>
+        <v>0.002129641286974</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5421,7 +5421,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.001802732704727931</v>
+        <v>0.002784454891427269</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5429,7 +5429,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.007766133793802771</v>
+        <v>0.01239698464182778</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5437,7 +5437,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-0.01182629492443515</v>
+        <v>-0.00740117043162691</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5445,7 +5445,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-0.002602174722516882</v>
+        <v>0.002977910360074844</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5453,7 +5453,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-0.00980682913113724</v>
+        <v>0.002085043920662951</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5461,7 +5461,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.01056205550782276</v>
+        <v>0.01506205454557665</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5469,7 +5469,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.003325053684198715</v>
+        <v>0.005213898794183711</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5477,7 +5477,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-0.0109667648975418</v>
+        <v>-0.004502419377622343</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5485,7 +5485,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.00274260783605719</v>
+        <v>0.006751399075827871</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5493,7 +5493,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.01611016922770295</v>
+        <v>-0.01283091328497593</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5501,7 +5501,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.01940968264964739</v>
+        <v>0.02260701872827914</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5509,7 +5509,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.01604499680457855</v>
+        <v>0.01778275161612706</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5517,7 +5517,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.004994013847750754</v>
+        <v>-0.003483986904665111</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5525,7 +5525,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-0.004526615234677954</v>
+        <v>-0.008857879839807162</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5549,7 +5549,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.01054688601030469</v>
+        <v>-0.01703955992399743</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5557,7 +5557,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.002475251830290757</v>
+        <v>-0.008963703075283835</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5565,7 +5565,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-0.02987606424311228</v>
+        <v>-0.0274635811642544</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5573,7 +5573,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-0.003105569998215606</v>
+        <v>-0.01088275728394892</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5581,7 +5581,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>-0.005401714460357457</v>
+        <v>0.01259158422198858</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5589,7 +5589,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-0.00708323321614924</v>
+        <v>-0.01132449078796211</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5597,7 +5597,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.01147798594816683</v>
+        <v>0.01400252489428761</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5605,7 +5605,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>-0.005118068527901695</v>
+        <v>-0.007258151621101686</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5613,7 +5613,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>-0.03139750581717127</v>
+        <v>-0.02667349035827109</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5621,7 +5621,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.0122444290977921</v>
+        <v>0.006598231561219945</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5629,7 +5629,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>-0.002681216270949196</v>
+        <v>-0.007037792708346647</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5637,7 +5637,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.02764524133371031</v>
+        <v>0.01328480904188513</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5645,7 +5645,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.008947843411215723</v>
+        <v>0.02030456570553667</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5653,7 +5653,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.009027710022315227</v>
+        <v>0.01075285203891058</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5661,7 +5661,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.01041526818490299</v>
+        <v>0.0008000044689756612</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5669,7 +5669,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.001905313294450685</v>
+        <v>-0.01748352205556717</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5677,7 +5677,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.01188778640822748</v>
+        <v>0.007235763030269496</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5685,7 +5685,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.01214781948272081</v>
+        <v>0.0173022180742801</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5693,7 +5693,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.0007081555927352335</v>
+        <v>0.004806293248218475</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5701,7 +5701,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.006260638349253446</v>
+        <v>-0.002894916050183837</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5709,7 +5709,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.01304980146437679</v>
+        <v>0.007405772547391339</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5717,7 +5717,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.0007425919042227461</v>
+        <v>0.005082267827838124</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5725,7 +5725,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.002369048383480819</v>
+        <v>0.001644853523993537</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5733,7 +5733,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>-3.878025498949524e-05</v>
+        <v>-0.001831497505729417</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5741,7 +5741,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.0003400379442067299</v>
+        <v>0.007922699284314454</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5749,7 +5749,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.008662158816558621</v>
+        <v>0.001436445283728434</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5757,7 +5757,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.00934301242132741</v>
+        <v>-0.002408773788407825</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6101,7 +6101,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-0.005877104516605592</v>
+        <v>-0.0002626328137387067</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6109,7 +6109,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.003660182306407489</v>
+        <v>-0.004260453559155286</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6117,7 +6117,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0.006136179836812678</v>
+        <v>0.005714707944074751</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6125,7 +6125,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>-0.01402379996198797</v>
+        <v>-0.01502907466531418</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6133,7 +6133,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.000141073099763534</v>
+        <v>-0.003375522852251114</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6141,7 +6141,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.0005319622281142507</v>
+        <v>0.001264040079078982</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6149,7 +6149,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.002961532566356656</v>
+        <v>-0.001371221061009915</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6157,7 +6157,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.01650647024164633</v>
+        <v>0.0189446092503465</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6165,7 +6165,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.0003220940524215287</v>
+        <v>-0.003035403408203761</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6173,7 +6173,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.003720889643310067</v>
+        <v>-0.00320697708001019</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6181,7 +6181,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>-0.003177109973015504</v>
+        <v>-0.002354834902857203</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6189,7 +6189,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.006978109940173851</v>
+        <v>0.01204257443330006</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6197,7 +6197,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.01130069738487097</v>
+        <v>0.01038223973864755</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6205,7 +6205,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-0.01071827547373623</v>
+        <v>-0.009573805069605016</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6213,7 +6213,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.001668120590758414</v>
+        <v>0.003211572978504848</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6221,7 +6221,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.0006377537090814712</v>
+        <v>0.005662249652064042</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6229,7 +6229,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.02173380792491295</v>
+        <v>0.01295394033620722</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6253,7 +6253,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.002170244008072517</v>
+        <v>-0.002998507895214067</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6261,7 +6261,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.006494014502113196</v>
+        <v>0.006497547604851954</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6269,7 +6269,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.003894028925158392</v>
+        <v>-0.004144346895863223</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6445,7 +6445,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.01071789050573189</v>
+        <v>0.01277097227591964</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6453,7 +6453,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.0001508199556120005</v>
+        <v>0.0001340209563967183</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6461,7 +6461,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.00599410104100085</v>
+        <v>0.002895845450936512</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6485,7 +6485,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>-0.01153875711654489</v>
+        <v>-0.006879762682518302</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6493,7 +6493,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.0008588054701718191</v>
+        <v>-8.136004444497412e-05</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6501,7 +6501,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>-0.003963645722938258</v>
+        <v>-0.002485775925177937</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6509,7 +6509,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>-0.001042679214453753</v>
+        <v>0.002275847380306712</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6517,7 +6517,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.007194504354504279</v>
+        <v>0.007511771239271266</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6525,7 +6525,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>-0.005134813955853633</v>
+        <v>-0.00521359331109718</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6533,7 +6533,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.005091930698999743</v>
+        <v>0.009006032122512884</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6541,7 +6541,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>-0.01114502479758357</v>
+        <v>-0.0138815367869985</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6549,7 +6549,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.006745174659035221</v>
+        <v>-0.01097934357104959</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6557,7 +6557,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-0.003967271727909024</v>
+        <v>-0.003663967603077984</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6565,7 +6565,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.006883767365928243</v>
+        <v>0.004830101685662987</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6573,7 +6573,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>-0.01525484325492623</v>
+        <v>-0.01302991792243191</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6581,7 +6581,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.003465828665418579</v>
+        <v>-0.00604675227318874</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6589,7 +6589,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>-0.007388900777495959</v>
+        <v>-0.01657728956473147</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6597,7 +6597,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>-0.001898924129321229</v>
+        <v>0.001795297520881557</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6605,7 +6605,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>-0.001271131558518888</v>
+        <v>0.00200969448333478</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6613,7 +6613,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>0.01140710512085123</v>
+        <v>0.01478336598187423</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6621,7 +6621,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>-0.02166290256714846</v>
+        <v>-0.01139215165597549</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6629,7 +6629,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>-0.002353515044845888</v>
+        <v>0.002313514767275433</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6637,7 +6637,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.009669465558618437</v>
+        <v>0.01152529052709335</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6645,7 +6645,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>-0.002921467409537853</v>
+        <v>-0.005385475235387299</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6653,7 +6653,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>-0.005887203146813061</v>
+        <v>-0.01854733544638673</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6661,7 +6661,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>-0.006127826218557201</v>
+        <v>-0.0008603348828522993</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6669,7 +6669,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.01131438069199092</v>
+        <v>0.01014482322783764</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6677,7 +6677,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.00761690764906132</v>
+        <v>0.008400541395664473</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6685,7 +6685,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>-0.005194329241006039</v>
+        <v>-0.001325275127052435</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6693,7 +6693,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.01039029422497091</v>
+        <v>0.01113617422409508</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6701,7 +6701,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.001061878410659981</v>
+        <v>-0.0009351417752250259</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6709,7 +6709,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>-0.001497417213494004</v>
+        <v>-0.0120571207153416</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6717,7 +6717,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>0.01222456415789466</v>
+        <v>0.01412532979006885</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6725,7 +6725,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0.006534992395048233</v>
+        <v>0.005798139271935801</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6733,7 +6733,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.0008244901446380855</v>
+        <v>-0.004996135006031439</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6741,7 +6741,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.005592669297054089</v>
+        <v>0.008684570229933611</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6749,7 +6749,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>-0.001207840627590697</v>
+        <v>-0.001778714742984749</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6757,7 +6757,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>-0.002182465863631603</v>
+        <v>-0.0005396360318130404</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6765,7 +6765,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>0.003863791278423501</v>
+        <v>0.006672258310631017</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6773,7 +6773,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>-0.001973145176953031</v>
+        <v>-0.003705905655880455</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6781,7 +6781,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>-0.001424204333870819</v>
+        <v>-0.004366252034651868</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6789,7 +6789,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>0.006874208986131099</v>
+        <v>0.00552514654125922</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6797,7 +6797,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.001644514034129883</v>
+        <v>0.003853128368577516</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6805,7 +6805,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>-0.002330197432655534</v>
+        <v>0.0003271502864645253</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6813,7 +6813,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>-0.002913209687862761</v>
+        <v>0.002951686408976466</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6821,7 +6821,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.004790812724671039</v>
+        <v>0.01004105290699616</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6829,7 +6829,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.0009000771277948832</v>
+        <v>0.001188970015870045</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6837,7 +6837,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>-0.008876780871092794</v>
+        <v>-0.009208916139619071</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6845,7 +6845,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>0.005073913924244183</v>
+        <v>0.005017448565824144</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6853,7 +6853,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.003643843348805845</v>
+        <v>0.001913581709094061</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6861,7 +6861,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>-0.00953854779346377</v>
+        <v>-0.01541584451356605</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6869,7 +6869,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>-0.01047573180549592</v>
+        <v>-0.01569470200239983</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6877,7 +6877,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>0.005543603996914178</v>
+        <v>0.01259695140382609</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6885,7 +6885,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>8.367338165738444e-05</v>
+        <v>-0.003213747093497678</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6893,7 +6893,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.009828937107232056</v>
+        <v>0.01004257570103139</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6901,7 +6901,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>-0.01040787524607711</v>
+        <v>-0.009910186615111113</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6909,7 +6909,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>-0.01181575013263296</v>
+        <v>-0.01226879956535658</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6917,7 +6917,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>-0.005163278914283944</v>
+        <v>0.0007773168461159526</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6925,7 +6925,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.009284422776138683</v>
+        <v>0.01318106716621873</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6933,7 +6933,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>-0.0186077454997236</v>
+        <v>-0.02096575644281559</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6941,7 +6941,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.0110436077627836</v>
+        <v>0.01465407561125862</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6949,7 +6949,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>0.0007535273620947458</v>
+        <v>0.0035175109644565</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6957,7 +6957,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>0.0007416158648039142</v>
+        <v>0.001155406862297671</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6965,7 +6965,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>-0.01598484026154483</v>
+        <v>-0.007552683256643473</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6973,7 +6973,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>0.002462124171040358</v>
+        <v>0.004192138475254511</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6981,7 +6981,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.008356259064526651</v>
+        <v>0.01033295093974766</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6989,7 +6989,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>-0.008091623500421696</v>
+        <v>-0.008554518633859247</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6997,7 +6997,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>-0.01866296820803167</v>
+        <v>-0.0126536761628747</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -7005,7 +7005,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.02025444447730272</v>
+        <v>0.02199357122024636</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>-0.02302388205126427</v>
+        <v>-0.02579334746709335</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -7021,7 +7021,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>-0.03778458360428239</v>
+        <v>-0.04293854313099661</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -7029,7 +7029,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>-0.0142898040041242</v>
+        <v>-0.01033298254832255</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -7037,7 +7037,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.007110839390585086</v>
+        <v>0.01511000481309935</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -7045,7 +7045,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.004567178235578145</v>
+        <v>0.002810778258130719</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7053,7 +7053,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.004170253025884425</v>
+        <v>0.00485920612141885</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7061,7 +7061,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.008822391871464509</v>
+        <v>0.001282728020913972</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7069,7 +7069,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.009340236660363731</v>
+        <v>0.009063122708283643</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7077,7 +7077,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.02704201763434663</v>
+        <v>0.02393722437070673</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7085,7 +7085,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>-0.005726677906505427</v>
+        <v>-0.01172569613648054</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7093,7 +7093,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>0.01828813374960311</v>
+        <v>0.01403984427259896</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7101,7 +7101,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>0.01005592871111339</v>
+        <v>0.005844683166123612</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7109,7 +7109,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>0.003243262781826632</v>
+        <v>0.005224827021893958</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7117,7 +7117,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>0.01836761050747677</v>
+        <v>0.01720087433464771</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7125,7 +7125,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>-0.0008283411535986705</v>
+        <v>-0.0005869200425695411</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7133,7 +7133,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>0.0003108616772963267</v>
+        <v>0.006645476765623187</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7141,7 +7141,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>0.02174316087759208</v>
+        <v>0.02039650960007705</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7149,7 +7149,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>0.004939634851688017</v>
+        <v>0.008056401817036733</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7157,7 +7157,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>-0.004634435821669453</v>
+        <v>0.003254999729857518</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7165,7 +7165,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0.01884339142184809</v>
+        <v>0.0005860791144622317</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7173,7 +7173,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>-0.00776050920962905</v>
+        <v>0.000356717421018289</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7181,7 +7181,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>0.001515169605596633</v>
+        <v>-0.001589855468492907</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7189,7 +7189,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.004379632764311389</v>
+        <v>0.001081129824670692</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7197,7 +7197,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>0.0001822967353286111</v>
+        <v>-0.002172020526976206</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7205,7 +7205,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>-0.0006467779211710107</v>
+        <v>0.003398494789573922</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7213,7 +7213,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>-0.001012247734810394</v>
+        <v>0.001012510075030412</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7221,7 +7221,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>0.006137561937589853</v>
+        <v>0.003815758281214857</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7229,7 +7229,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>-0.001328031168426054</v>
+        <v>0.0002222509909321449</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7237,7 +7237,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>0.006070730736141568</v>
+        <v>0.003026462910124358</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7245,7 +7245,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>-0.006985417823686974</v>
+        <v>-0.007705670380629727</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7253,7 +7253,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>-5.650633752701947e-05</v>
+        <v>0.007678736451761314</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7261,7 +7261,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>0.009986686407873337</v>
+        <v>0.01521471258701287</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7269,7 +7269,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>0.00680685410331464</v>
+        <v>0.004970694249789954</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7277,7 +7277,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>0.00235470984334868</v>
+        <v>0.006406816740519374</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7285,7 +7285,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>0.01065833152421434</v>
+        <v>0.01034083638841578</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7309,7 +7309,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>-0.006181184756044353</v>
+        <v>-0.006525765341429146</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7317,7 +7317,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>0.002679800660602694</v>
+        <v>0.0027639729719012</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7325,7 +7325,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>0.01454839176656838</v>
+        <v>0.01532713440828162</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7333,7 +7333,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>-0.002521855528344899</v>
+        <v>-0.002526315828107698</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7341,7 +7341,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>0.004312910757084096</v>
+        <v>0.004676886488530107</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7349,7 +7349,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>-0.01175353603086427</v>
+        <v>-0.01235995395046228</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7357,7 +7357,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>-0.002183108876949389</v>
+        <v>-0.002344468756687854</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7365,7 +7365,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>-0.01676511534113016</v>
+        <v>-0.01766701982303657</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7373,7 +7373,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>0.003081688862698381</v>
+        <v>0.003535941916195726</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7381,7 +7381,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>-0.009163282997837323</v>
+        <v>-0.01004549698142468</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7389,7 +7389,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>-0.006700028531057381</v>
+        <v>-0.006975912599297101</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7397,7 +7397,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>-0.01026377527744047</v>
+        <v>-0.009691731776440832</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7405,7 +7405,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>0.01912023751388045</v>
+        <v>0.01869415306104343</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7413,7 +7413,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.01890567298798465</v>
+        <v>0.01976617095122214</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7421,7 +7421,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.0006727798558456839</v>
+        <v>0.00108722979766336</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7429,7 +7429,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.01034888979113211</v>
+        <v>0.009813467375737846</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7437,7 +7437,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.003378356029081053</v>
+        <v>0.003540324609655439</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7445,7 +7445,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>0.0006127407973739965</v>
+        <v>0.000742848971310517</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7453,7 +7453,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>0.002210532065560667</v>
+        <v>0.002480021063902164</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7461,7 +7461,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>-0.005055636086873978</v>
+        <v>-0.004745109702289517</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7469,7 +7469,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>-0.003760669945605011</v>
+        <v>-0.004050938711074063</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7477,7 +7477,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>-0.01056105787357938</v>
+        <v>-0.01057790337785534</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7485,7 +7485,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>-0.003846851717550511</v>
+        <v>-0.003137215220441334</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7493,7 +7493,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>-0.01699008339292776</v>
+        <v>-0.0248414679514614</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7501,7 +7501,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>-0.01753122984220355</v>
+        <v>-0.02311001528224173</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7509,7 +7509,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.008271303241893423</v>
+        <v>0.01217849125696198</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7517,7 +7517,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>0.02371126230995135</v>
+        <v>0.0208080520807077</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7525,7 +7525,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>-0.003639076555971692</v>
+        <v>-0.0001036360240905158</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7533,7 +7533,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>-0.01162547990646684</v>
+        <v>-0.01501573466399749</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7541,7 +7541,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>-0.007555047145100833</v>
+        <v>-0.01285428641640309</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7549,7 +7549,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>-0.004662527026324761</v>
+        <v>-0.009935521284027485</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7557,7 +7557,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>-0.0118766691888223</v>
+        <v>-0.01000835309050556</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7565,7 +7565,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.01053999134284898</v>
+        <v>0.01198678975996202</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7589,7 +7589,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.003246266027877651</v>
+        <v>0.01195095579608572</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7597,7 +7597,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.02088335373478422</v>
+        <v>0.003393413662651407</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7605,7 +7605,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>-0.0003581984905373715</v>
+        <v>0.007915622908041459</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7613,7 +7613,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>-0.006773302864045882</v>
+        <v>-0.003988673760721904</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7621,7 +7621,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>-0.02409084358689173</v>
+        <v>-0.01202930504667374</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7629,7 +7629,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>-0.0138417044829404</v>
+        <v>-0.008620160837290974</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7637,7 +7637,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.002565738440275099</v>
+        <v>0.006360209650083554</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7645,7 +7645,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>-0.0244217437802462</v>
+        <v>-0.01422966075585387</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7653,7 +7653,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.006671390781266106</v>
+        <v>0.007635561928188253</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -7661,7 +7661,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.006074625452898445</v>
+        <v>0.008639386802682772</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7669,7 +7669,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>-0.01531314495132853</v>
+        <v>-0.01231491286746159</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -7677,7 +7677,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>0.002052422266368635</v>
+        <v>0.0009628058902484593</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -7685,7 +7685,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>-0.005166431851487518</v>
+        <v>-0.00270480708612547</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -7693,7 +7693,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>-0.008173749571519739</v>
+        <v>-0.002271385348683487</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -7701,7 +7701,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.008726560488503374</v>
+        <v>0.009386390008088968</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7709,7 +7709,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.004270590658911695</v>
+        <v>0.008303453345461419</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -7717,7 +7717,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>0.01882013350185089</v>
+        <v>0.01468985725484662</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -7725,7 +7725,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.008474583024947737</v>
+        <v>0.006040976179603629</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -7733,7 +7733,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>-0.002262347791659646</v>
+        <v>-0.0005718747447084596</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -7741,7 +7741,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>0.007087748315377242</v>
+        <v>0.007397482768524103</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7749,7 +7749,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>0.00642019163082244</v>
+        <v>0.004822769958396761</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7757,7 +7757,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.003951501041763752</v>
+        <v>0.003360502444817823</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -7765,7 +7765,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>-0.003837341633770558</v>
+        <v>-0.01406225664460911</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7773,7 +7773,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>0.00226030395121197</v>
+        <v>0.0006293028182343117</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7781,7 +7781,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>-0.002716303380483033</v>
+        <v>-0.002300100893334685</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7789,7 +7789,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.00498606990448717</v>
+        <v>0.006033294166676936</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -7797,7 +7797,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.001390850098348849</v>
+        <v>-0.003962653038181064</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7805,7 +7805,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.009788690496803953</v>
+        <v>0.002982173072678844</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7813,7 +7813,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>-0.01731324871097344</v>
+        <v>-0.01385943759033112</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7821,7 +7821,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>-0.004619556298460267</v>
+        <v>-0.01029290520848741</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7829,7 +7829,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.008954187304531548</v>
+        <v>0.005086710611914033</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7837,7 +7837,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>-0.009536159658945123</v>
+        <v>-0.01303218237082045</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7845,7 +7845,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.004580119845725551</v>
+        <v>0.006960484221708138</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7853,7 +7853,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>-0.01685973360381707</v>
+        <v>-0.02292879280842503</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7861,7 +7861,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>-0.007167685006823434</v>
+        <v>-0.00513773975953973</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7869,7 +7869,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.007671455075648976</v>
+        <v>0.00725905256653912</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7877,7 +7877,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>-0.00333557469779546</v>
+        <v>-0.003782179135478828</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7885,7 +7885,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>0.011991033445477</v>
+        <v>0.011532077604001</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7893,7 +7893,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>1.412304938637151e-05</v>
+        <v>0.006580908289288825</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7901,7 +7901,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>0.009401273785922152</v>
+        <v>0.01556873235325731</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7909,7 +7909,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>-0.0003537978297677444</v>
+        <v>-0.005414217844400186</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7917,7 +7917,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>0.003339046121618266</v>
+        <v>0.008492042035429859</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7925,7 +7925,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>-0.005430135772437773</v>
+        <v>0.00205950611130036</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7933,7 +7933,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>-0.009841172727393873</v>
+        <v>-0.005323716321948746</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7941,7 +7941,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>-0.02819710509018895</v>
+        <v>-0.02731101366816053</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7949,7 +7949,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.004794755683481798</v>
+        <v>0.003830198901104306</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7957,7 +7957,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.007561951978613901</v>
+        <v>0.002049332491530246</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7965,7 +7965,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>0.008272801256982992</v>
+        <v>0.008837937489127805</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7973,7 +7973,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>-0.009968073335464477</v>
+        <v>-0.005624806886149662</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7981,7 +7981,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>0.0005077512020374209</v>
+        <v>-0.003404463772314579</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7989,7 +7989,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>-0.003354824845773682</v>
+        <v>0.003017932566037035</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7997,7 +7997,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.006363141699617816</v>
+        <v>0.0100786964712325</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -8005,7 +8005,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>-0.004342488120043348</v>
+        <v>0.003168693446554902</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -8013,7 +8013,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.004184029986497887</v>
+        <v>0.009223052960716885</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -8021,7 +8021,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>0.007756860948352833</v>
+        <v>0.00799794278872744</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -8029,7 +8029,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>0.004157823116831444</v>
+        <v>0.005459540956635027</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -8037,7 +8037,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>-0.003957783038823449</v>
+        <v>-0.01371157965684747</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -8045,7 +8045,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>-0.01093036900291304</v>
+        <v>0.0002673501872694631</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -8053,7 +8053,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>0.01391263113211915</v>
+        <v>0.0008580465099313542</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -8061,7 +8061,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>-0.0001247930568681427</v>
+        <v>0.004551018745286651</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -8069,7 +8069,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>-0.02681988873417455</v>
+        <v>-0.02069646442396931</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -8077,7 +8077,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>0.008062725510089287</v>
+        <v>0.0127067243229615</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -8085,7 +8085,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>2.755082041003843e-07</v>
+        <v>0.01250956198808348</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -8093,7 +8093,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>0.004882161862873827</v>
+        <v>0.005545187409780498</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -8101,7 +8101,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>0.0001823505390310988</v>
+        <v>0.001813131281603964</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -8109,7 +8109,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>-0.003465382505731832</v>
+        <v>-0.004301405345392015</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8117,7 +8117,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>-0.006451888602405835</v>
+        <v>-0.001832041559792017</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8125,7 +8125,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>0.002869826248846698</v>
+        <v>0.004613298944523928</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8133,7 +8133,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>-0.002660333612799599</v>
+        <v>0.006690690237416981</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8141,7 +8141,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>-0.01680424002879727</v>
+        <v>-0.01873824835063921</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8149,7 +8149,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>0.008062597160081312</v>
+        <v>0.01263065564608686</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -8157,7 +8157,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>0.007900701396538293</v>
+        <v>0.002099282639519376</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8165,7 +8165,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>-0.01418186412028945</v>
+        <v>-0.01394468144359241</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8173,7 +8173,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>-0.007933564993500068</v>
+        <v>-0.004375109155158399</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8181,7 +8181,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>0.003610985678386394</v>
+        <v>0.004563905975287728</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8189,7 +8189,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>0.02252016057443548</v>
+        <v>0.01001385125199193</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8197,7 +8197,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>2.398666363184494e-05</v>
+        <v>-0.002663182823735278</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8205,7 +8205,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>-0.009467357257551951</v>
+        <v>-0.006255967975307492</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8213,7 +8213,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>0.007632905612651395</v>
+        <v>0.008251102183863906</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8221,7 +8221,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>0.008643292731308903</v>
+        <v>0.01086967458789766</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8229,7 +8229,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>0.003137165323754985</v>
+        <v>-0.002339296745793913</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8237,7 +8237,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>0.003030152883531083</v>
+        <v>0.004507763524757208</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8245,7 +8245,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>-0.007851543046242099</v>
+        <v>-0.007063640409809994</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8253,7 +8253,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>-0.000656837139744585</v>
+        <v>-0.002677884250509504</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8261,7 +8261,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>0.007295624583364088</v>
+        <v>0.00691830375114514</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8269,7 +8269,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>0.001798236737698275</v>
+        <v>0.002075721528460033</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -8293,7 +8293,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.01543066806433303</v>
+        <v>0.01734853462773648</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8301,7 +8301,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>0.0003779787835164846</v>
+        <v>-0.001389870504980183</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8309,7 +8309,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>-0.005409301310643114</v>
+        <v>-0.00477056169310182</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8317,7 +8317,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.006854520701609928</v>
+        <v>0.01394009799148186</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8325,7 +8325,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>-0.008283580386486649</v>
+        <v>-0.002797131428394204</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8333,7 +8333,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.01303208465629024</v>
+        <v>0.01418619559375058</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8341,7 +8341,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>-0.01039466950122936</v>
+        <v>-0.01197994159903572</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -8349,7 +8349,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.01140979452508251</v>
+        <v>0.01468524770624317</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8357,7 +8357,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>-0.008597995937628562</v>
+        <v>-0.00865415689583263</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8365,7 +8365,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>0.01803004090482807</v>
+        <v>0.01883251918924287</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8373,7 +8373,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>0.006925122206300657</v>
+        <v>0.01156970136001529</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8381,7 +8381,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>5.88498783360165e-05</v>
+        <v>0.001111584894933944</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8389,7 +8389,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>-0.00367782047573894</v>
+        <v>-0.003266383021644393</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8397,7 +8397,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.003989862338015585</v>
+        <v>-0.001117542245226703</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8405,7 +8405,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.01091667950337302</v>
+        <v>0.01170219204881787</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8413,7 +8413,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.0053926427783049</v>
+        <v>-0.001121894040707094</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8421,7 +8421,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.0120570720822967</v>
+        <v>0.01205173216653208</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8429,7 +8429,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>-0.003044605645984568</v>
+        <v>-0.001539896582315962</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8437,7 +8437,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>-0.0006919261920520957</v>
+        <v>0.004085962232654123</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8445,7 +8445,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>-0.00823308913993933</v>
+        <v>-0.006187145192882469</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8453,7 +8453,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>-0.01073673840811728</v>
+        <v>-0.01394087727243235</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8461,7 +8461,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>-0.00217944306262403</v>
+        <v>0.002023037576564992</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -8469,7 +8469,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>-0.01392912345743887</v>
+        <v>-0.0130979586300877</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -8477,7 +8477,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>-0.02355235330241459</v>
+        <v>-0.02183541386500001</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8485,7 +8485,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>0.001984459233250286</v>
+        <v>0.00281130982238166</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -8493,7 +8493,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>0.008546401280216564</v>
+        <v>0.007607668629901918</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -8501,7 +8501,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>-0.003788399452524082</v>
+        <v>-0.005888260694077828</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -8525,7 +8525,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>-0.001753687430412164</v>
+        <v>-0.001151824941314928</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -8533,7 +8533,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>-0.01910587527238986</v>
+        <v>-0.0186554121014314</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -8541,7 +8541,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>-0.005085591446188878</v>
+        <v>-0.005122652923976858</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -8549,7 +8549,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.01644703061471507</v>
+        <v>0.01380789961707674</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -8557,7 +8557,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.003736017221225317</v>
+        <v>0.004624261343769173</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8565,7 +8565,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>0.00646283928800561</v>
+        <v>0.004395478743334351</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -8573,7 +8573,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>-0.002749595167616684</v>
+        <v>-0.002598145467583558</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -8581,7 +8581,7 @@
         <v>501</v>
       </c>
       <c r="B502">
-        <v>0.01234301967587214</v>
+        <v>0.008986261923550487</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -8589,7 +8589,7 @@
         <v>502</v>
       </c>
       <c r="B503">
-        <v>0.0001782301871574221</v>
+        <v>0.0004379706374318931</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -8597,7 +8597,7 @@
         <v>503</v>
       </c>
       <c r="B504">
-        <v>-0.002463679033153966</v>
+        <v>-0.001851913745983315</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -8605,7 +8605,7 @@
         <v>504</v>
       </c>
       <c r="B505">
-        <v>-0.002239466618938112</v>
+        <v>-0.001366056711805838</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -8613,7 +8613,7 @@
         <v>505</v>
       </c>
       <c r="B506">
-        <v>-0.008492632314854368</v>
+        <v>-0.006475377937417644</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -8621,7 +8621,7 @@
         <v>506</v>
       </c>
       <c r="B507">
-        <v>-0.003226292132020338</v>
+        <v>-0.002640580967472443</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -8629,7 +8629,7 @@
         <v>507</v>
       </c>
       <c r="B508">
-        <v>-0.007845511298067957</v>
+        <v>-0.01045609550844527</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -8637,7 +8637,7 @@
         <v>508</v>
       </c>
       <c r="B509">
-        <v>-0.01544009733411828</v>
+        <v>-0.01207333438421961</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -8645,7 +8645,7 @@
         <v>509</v>
       </c>
       <c r="B510">
-        <v>0.01314537938473572</v>
+        <v>0.01221688007562585</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -8653,7 +8653,7 @@
         <v>510</v>
       </c>
       <c r="B511">
-        <v>0.01649091871421647</v>
+        <v>0.01888339098229207</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -8661,7 +8661,7 @@
         <v>511</v>
       </c>
       <c r="B512">
-        <v>-0.001859633971416042</v>
+        <v>-6.300184029523692e-05</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -8669,7 +8669,7 @@
         <v>512</v>
       </c>
       <c r="B513">
-        <v>0.003035222918333022</v>
+        <v>0.004876367805284761</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -8677,7 +8677,7 @@
         <v>513</v>
       </c>
       <c r="B514">
-        <v>0.00574511448168187</v>
+        <v>-0.0002031069268349792</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -8685,7 +8685,7 @@
         <v>514</v>
       </c>
       <c r="B515">
-        <v>-0.005021964889051334</v>
+        <v>-0.001193772853332955</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -8693,7 +8693,7 @@
         <v>515</v>
       </c>
       <c r="B516">
-        <v>0.01167264654732716</v>
+        <v>0.02092598905054358</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -8701,7 +8701,7 @@
         <v>516</v>
       </c>
       <c r="B517">
-        <v>-0.01438495892499539</v>
+        <v>-0.01620614207582025</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -8709,7 +8709,7 @@
         <v>517</v>
       </c>
       <c r="B518">
-        <v>0.007889050175687608</v>
+        <v>-0.0009933513115713763</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -8717,7 +8717,7 @@
         <v>518</v>
       </c>
       <c r="B519">
-        <v>0.01213398832328086</v>
+        <v>0.02242857348356104</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -8725,7 +8725,7 @@
         <v>519</v>
       </c>
       <c r="B520">
-        <v>-0.01686233244143413</v>
+        <v>-0.01379228818895862</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -8733,7 +8733,7 @@
         <v>520</v>
       </c>
       <c r="B521">
-        <v>0.0008344254985501625</v>
+        <v>-0.002527994048263191</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -8741,7 +8741,7 @@
         <v>521</v>
       </c>
       <c r="B522">
-        <v>-0.005263602045174232</v>
+        <v>-0.003967311542173033</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -8749,7 +8749,7 @@
         <v>522</v>
       </c>
       <c r="B523">
-        <v>0.009538705969458007</v>
+        <v>0.008934471043769449</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -8757,7 +8757,7 @@
         <v>523</v>
       </c>
       <c r="B524">
-        <v>0.003054558266338455</v>
+        <v>0.00814265744186349</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -8765,7 +8765,7 @@
         <v>524</v>
       </c>
       <c r="B525">
-        <v>-0.008423236503160932</v>
+        <v>-0.01574592843693238</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -8773,7 +8773,7 @@
         <v>525</v>
       </c>
       <c r="B526">
-        <v>-0.01140945191580657</v>
+        <v>-0.02577047626905792</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -8781,7 +8781,7 @@
         <v>526</v>
       </c>
       <c r="B527">
-        <v>-0.0273348862555956</v>
+        <v>-0.02416715481726026</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -8789,7 +8789,7 @@
         <v>527</v>
       </c>
       <c r="B528">
-        <v>-0.02644594211447009</v>
+        <v>-0.005265155867737696</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -8797,7 +8797,7 @@
         <v>528</v>
       </c>
       <c r="B529">
-        <v>-0.04073441465849376</v>
+        <v>-0.03530806630266253</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -8805,7 +8805,7 @@
         <v>529</v>
       </c>
       <c r="B530">
-        <v>-0.01555741041454983</v>
+        <v>-0.008082326751924144</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -8813,7 +8813,7 @@
         <v>530</v>
       </c>
       <c r="B531">
-        <v>0.04044906738767963</v>
+        <v>0.03259287795397604</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -8821,7 +8821,7 @@
         <v>531</v>
       </c>
       <c r="B532">
-        <v>0.02339190988740722</v>
+        <v>0.02788195250801995</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -8829,7 +8829,7 @@
         <v>532</v>
       </c>
       <c r="B533">
-        <v>0.003900252140790273</v>
+        <v>0.01260833208920631</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -8837,7 +8837,7 @@
         <v>533</v>
       </c>
       <c r="B534">
-        <v>-0.008484969713220467</v>
+        <v>-0.00314352954150187</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -8845,7 +8845,7 @@
         <v>534</v>
       </c>
       <c r="B535">
-        <v>-0.0346042579118987</v>
+        <v>-0.03092804390312008</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -8853,7 +8853,7 @@
         <v>535</v>
       </c>
       <c r="B536">
-        <v>0.01294380259892721</v>
+        <v>0.01775645741942557</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -8861,7 +8861,7 @@
         <v>536</v>
       </c>
       <c r="B537">
-        <v>0.007466451162441722</v>
+        <v>0.004797210544865768</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -8869,7 +8869,7 @@
         <v>537</v>
       </c>
       <c r="B538">
-        <v>-0.01227573623922139</v>
+        <v>-0.01786918549000847</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -8877,7 +8877,7 @@
         <v>538</v>
       </c>
       <c r="B539">
-        <v>0.03853281069669945</v>
+        <v>0.0364548620555064</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -8885,7 +8885,7 @@
         <v>539</v>
       </c>
       <c r="B540">
-        <v>-0.01923243467476499</v>
+        <v>-0.01637792586968089</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -8893,7 +8893,7 @@
         <v>540</v>
       </c>
       <c r="B541">
-        <v>0.01145034055568782</v>
+        <v>0.01729578834634141</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -8901,7 +8901,7 @@
         <v>541</v>
       </c>
       <c r="B542">
-        <v>0.003636576617003996</v>
+        <v>0.006557658073983929</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -8909,7 +8909,7 @@
         <v>542</v>
       </c>
       <c r="B543">
-        <v>-0.003629510633735585</v>
+        <v>-0.003903359947934418</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -8917,7 +8917,7 @@
         <v>543</v>
       </c>
       <c r="B544">
-        <v>0.02035344877627449</v>
+        <v>0.01209940059922904</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -8925,7 +8925,7 @@
         <v>544</v>
       </c>
       <c r="B545">
-        <v>0.006154731171483852</v>
+        <v>0.006544864534732708</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -8933,7 +8933,7 @@
         <v>545</v>
       </c>
       <c r="B546">
-        <v>-0.004797941947445579</v>
+        <v>-0.001285542970634356</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -8941,7 +8941,7 @@
         <v>546</v>
       </c>
       <c r="B547">
-        <v>-0.01797498219526743</v>
+        <v>-0.008422090920106986</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -8949,7 +8949,7 @@
         <v>547</v>
       </c>
       <c r="B548">
-        <v>-0.002188753476312776</v>
+        <v>0.002361970354816228</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -8957,7 +8957,7 @@
         <v>548</v>
       </c>
       <c r="B549">
-        <v>-0.01972241814190349</v>
+        <v>-0.01911881892294311</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -8965,7 +8965,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>-0.005930353185739855</v>
+        <v>-0.002565888079607983</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -8973,7 +8973,7 @@
         <v>550</v>
       </c>
       <c r="B551">
-        <v>-0.004437624725132486</v>
+        <v>-0.00305111453873922</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -8981,7 +8981,7 @@
         <v>551</v>
       </c>
       <c r="B552">
-        <v>-0.003866941588055051</v>
+        <v>0.00169928323694137</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -8989,7 +8989,7 @@
         <v>552</v>
       </c>
       <c r="B553">
-        <v>-0.02173548940574858</v>
+        <v>-0.01696298247683434</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -8997,7 +8997,7 @@
         <v>553</v>
       </c>
       <c r="B554">
-        <v>-0.0005699241454364271</v>
+        <v>-0.002637021988416573</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -9005,7 +9005,7 @@
         <v>554</v>
       </c>
       <c r="B555">
-        <v>0.02107088863235496</v>
+        <v>0.02639165546481273</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -9357,7 +9357,7 @@
         <v>598</v>
       </c>
       <c r="B599">
-        <v>0.01237081704210834</v>
+        <v>0.01191002393183556</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -9365,7 +9365,7 @@
         <v>599</v>
       </c>
       <c r="B600">
-        <v>-0.0106192066755811</v>
+        <v>0.001090689310043635</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -9373,7 +9373,7 @@
         <v>600</v>
       </c>
       <c r="B601">
-        <v>-0.01791758282945764</v>
+        <v>-0.01575268314132747</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -9381,7 +9381,7 @@
         <v>601</v>
       </c>
       <c r="B602">
-        <v>0.01969048184247088</v>
+        <v>0.02183166895858657</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -9389,7 +9389,7 @@
         <v>602</v>
       </c>
       <c r="B603">
-        <v>-0.02044469800420079</v>
+        <v>-0.01329121699862104</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -9397,7 +9397,7 @@
         <v>603</v>
       </c>
       <c r="B604">
-        <v>-0.01216546182399155</v>
+        <v>4.335332666703835e-05</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -9405,7 +9405,7 @@
         <v>604</v>
       </c>
       <c r="B605">
-        <v>-0.02167835620195646</v>
+        <v>-0.01648198115833989</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -9413,7 +9413,7 @@
         <v>605</v>
       </c>
       <c r="B606">
-        <v>0.005646368815158649</v>
+        <v>0.00320062130516843</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -9421,7 +9421,7 @@
         <v>606</v>
       </c>
       <c r="B607">
-        <v>-0.02769710897557249</v>
+        <v>-0.02146271620592707</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -9429,7 +9429,7 @@
         <v>607</v>
       </c>
       <c r="B608">
-        <v>-0.0007424441938378351</v>
+        <v>-0.001007369126816825</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -9437,7 +9437,7 @@
         <v>608</v>
       </c>
       <c r="B609">
-        <v>0.008521153717614107</v>
+        <v>0.01649971515099981</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -9445,7 +9445,7 @@
         <v>609</v>
       </c>
       <c r="B610">
-        <v>0.0198399224249063</v>
+        <v>0.01036736254558964</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -9453,7 +9453,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>-0.01521114121721205</v>
+        <v>-0.01551061378600426</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -9461,7 +9461,7 @@
         <v>611</v>
       </c>
       <c r="B612">
-        <v>-0.003872187961976896</v>
+        <v>-0.01638548903378773</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -9469,7 +9469,7 @@
         <v>612</v>
       </c>
       <c r="B613">
-        <v>0.008015545502660922</v>
+        <v>0.01093154939387514</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -9477,7 +9477,7 @@
         <v>613</v>
       </c>
       <c r="B614">
-        <v>0.008387603876565375</v>
+        <v>0.01242400864702227</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -9485,7 +9485,7 @@
         <v>614</v>
       </c>
       <c r="B615">
-        <v>0.009669424296523357</v>
+        <v>0.008299198822410869</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -9493,7 +9493,7 @@
         <v>615</v>
       </c>
       <c r="B616">
-        <v>-0.0002693323744065748</v>
+        <v>0.001202996201822929</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -9501,7 +9501,7 @@
         <v>616</v>
       </c>
       <c r="B617">
-        <v>-0.002768944910307973</v>
+        <v>-0.001070823969835471</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -9509,7 +9509,7 @@
         <v>617</v>
       </c>
       <c r="B618">
-        <v>0.007465626957538937</v>
+        <v>0.01155699504023811</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -9517,7 +9517,7 @@
         <v>618</v>
       </c>
       <c r="B619">
-        <v>-0.008304971632395724</v>
+        <v>-0.004944438999052472</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -9525,7 +9525,7 @@
         <v>619</v>
       </c>
       <c r="B620">
-        <v>-0.01266876127403438</v>
+        <v>-0.01252320665614138</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -9533,7 +9533,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>-0.02827634519409463</v>
+        <v>-0.02219427153061686</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -9541,7 +9541,7 @@
         <v>621</v>
       </c>
       <c r="B622">
-        <v>0.006951633662400498</v>
+        <v>0.004086128344699891</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -9549,7 +9549,7 @@
         <v>622</v>
       </c>
       <c r="B623">
-        <v>-0.02413553162929945</v>
+        <v>-0.0359626106502983</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -9557,7 +9557,7 @@
         <v>623</v>
       </c>
       <c r="B624">
-        <v>-0.03195429313479009</v>
+        <v>-0.04305370145414624</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -9565,7 +9565,7 @@
         <v>624</v>
       </c>
       <c r="B625">
-        <v>-0.02175410077270152</v>
+        <v>-0.01762549849578546</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -9573,7 +9573,7 @@
         <v>625</v>
       </c>
       <c r="B626">
-        <v>0.01930891001734399</v>
+        <v>0.008178249997623161</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -9581,7 +9581,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>0.02238142808838388</v>
+        <v>0.01280331220702537</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -9589,7 +9589,7 @@
         <v>627</v>
       </c>
       <c r="B628">
-        <v>-0.03184577666182355</v>
+        <v>-0.04303914613831165</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -9597,7 +9597,7 @@
         <v>628</v>
       </c>
       <c r="B629">
-        <v>0.01567193953464098</v>
+        <v>0.007167035088303235</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -9605,7 +9605,7 @@
         <v>629</v>
       </c>
       <c r="B630">
-        <v>-0.02327759081973734</v>
+        <v>-0.04912016162857955</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -9629,7 +9629,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>-0.01385651494801457</v>
+        <v>0.001928128998859286</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -9637,7 +9637,7 @@
         <v>633</v>
       </c>
       <c r="B634">
-        <v>0.03163955254595207</v>
+        <v>0.03311601893985426</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -9645,7 +9645,7 @@
         <v>634</v>
       </c>
       <c r="B635">
-        <v>0.01597157675309847</v>
+        <v>0.01259339023204073</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -9653,7 +9653,7 @@
         <v>635</v>
       </c>
       <c r="B636">
-        <v>-0.003425174377386126</v>
+        <v>-0.01460898909091544</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -9661,7 +9661,7 @@
         <v>636</v>
       </c>
       <c r="B637">
-        <v>-0.002686781533387039</v>
+        <v>0.01261275126949717</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -9669,7 +9669,7 @@
         <v>637</v>
       </c>
       <c r="B638">
-        <v>-0.01180747879371014</v>
+        <v>-0.0134498851335909</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -9677,7 +9677,7 @@
         <v>638</v>
       </c>
       <c r="B639">
-        <v>-0.002357243170707883</v>
+        <v>-0.003557395343287188</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -9685,7 +9685,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>0.0337414376347385</v>
+        <v>0.05784575270591142</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -9693,7 +9693,7 @@
         <v>640</v>
       </c>
       <c r="B641">
-        <v>-0.0006816433105286851</v>
+        <v>0.002824931187415907</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -9701,7 +9701,7 @@
         <v>641</v>
       </c>
       <c r="B642">
-        <v>-0.02756619678483886</v>
+        <v>-0.03303599488998624</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -9709,7 +9709,7 @@
         <v>642</v>
       </c>
       <c r="B643">
-        <v>0.0117398253092697</v>
+        <v>0.005340102141581595</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -9717,7 +9717,7 @@
         <v>643</v>
       </c>
       <c r="B644">
-        <v>0.003405874256542421</v>
+        <v>0.003073016411264499</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -9725,7 +9725,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>-0.02304743292884456</v>
+        <v>-0.061643958756033</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -9733,7 +9733,7 @@
         <v>645</v>
       </c>
       <c r="B646">
-        <v>-0.01536894940086441</v>
+        <v>-0.03826541383554687</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -9741,7 +9741,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>-0.01467773903780225</v>
+        <v>0.001400020299977503</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -9749,7 +9749,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>0.001698449894773919</v>
+        <v>0.009226613582107005</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -9757,7 +9757,7 @@
         <v>648</v>
       </c>
       <c r="B649">
-        <v>-0.01766002445640948</v>
+        <v>-0.00103972358165449</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -9765,7 +9765,7 @@
         <v>649</v>
       </c>
       <c r="B650">
-        <v>0.02306342013695481</v>
+        <v>0.01710370360717914</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -9773,7 +9773,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>0.04315564425443109</v>
+        <v>0.02868228274689308</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -9781,7 +9781,7 @@
         <v>651</v>
       </c>
       <c r="B652">
-        <v>0.01921722300959234</v>
+        <v>0.03333590440695002</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -9789,7 +9789,7 @@
         <v>652</v>
       </c>
       <c r="B653">
-        <v>0.01961180602960249</v>
+        <v>0.02033781492984962</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -9797,7 +9797,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>0.01143674710530492</v>
+        <v>0.01045883961825546</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -9805,7 +9805,7 @@
         <v>654</v>
       </c>
       <c r="B655">
-        <v>0.009329429220579357</v>
+        <v>0.02613421504454115</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -9813,7 +9813,7 @@
         <v>655</v>
       </c>
       <c r="B656">
-        <v>0.003574350961971976</v>
+        <v>-0.008170318046399226</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -9821,7 +9821,7 @@
         <v>656</v>
       </c>
       <c r="B657">
-        <v>0.02148365214614006</v>
+        <v>0.005545007779365788</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -9829,7 +9829,7 @@
         <v>657</v>
       </c>
       <c r="B658">
-        <v>0.01066535738897375</v>
+        <v>0.02615902064784615</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -9837,7 +9837,7 @@
         <v>658</v>
       </c>
       <c r="B659">
-        <v>0.0004870939354177603</v>
+        <v>-0.005892397194817089</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -9845,7 +9845,7 @@
         <v>659</v>
       </c>
       <c r="B660">
-        <v>-0.004627598591961254</v>
+        <v>-0.009948131227224554</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -9853,7 +9853,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>0.02268913168111844</v>
+        <v>0.02835711863499104</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -9861,7 +9861,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>0.01387104907999316</v>
+        <v>0.0173443780968145</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -9869,7 +9869,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>0.001408705625911909</v>
+        <v>0.01385167934122441</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -9877,7 +9877,7 @@
         <v>663</v>
       </c>
       <c r="B664">
-        <v>0.000818810060596377</v>
+        <v>0.001910909982013454</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -9885,7 +9885,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>0.01840351847817522</v>
+        <v>0.01620702183491719</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -9893,7 +9893,7 @@
         <v>665</v>
       </c>
       <c r="B666">
-        <v>-0.01939746625322932</v>
+        <v>-0.02495430427023338</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -9901,7 +9901,7 @@
         <v>666</v>
       </c>
       <c r="B667">
-        <v>0.005385686534612973</v>
+        <v>0.001859454188521476</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -9909,7 +9909,7 @@
         <v>667</v>
       </c>
       <c r="B668">
-        <v>0.001799903607890752</v>
+        <v>-0.003056598517652827</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -9917,7 +9917,7 @@
         <v>668</v>
       </c>
       <c r="B669">
-        <v>0.01762273743824587</v>
+        <v>0.03535086189966182</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -9925,7 +9925,7 @@
         <v>669</v>
       </c>
       <c r="B670">
-        <v>-0.004629719901017398</v>
+        <v>0.01456146619018365</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -9933,7 +9933,7 @@
         <v>670</v>
       </c>
       <c r="B671">
-        <v>-0.004646672632902941</v>
+        <v>-0.01739557627119406</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -9941,7 +9941,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>0.01098311533709801</v>
+        <v>0.01868578603701655</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -9949,7 +9949,7 @@
         <v>672</v>
       </c>
       <c r="B673">
-        <v>0.009512557662397687</v>
+        <v>0.0186072712974844</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -9957,7 +9957,7 @@
         <v>673</v>
       </c>
       <c r="B674">
-        <v>0.0121154717427205</v>
+        <v>0.01147513996285505</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -9965,7 +9965,7 @@
         <v>674</v>
       </c>
       <c r="B675">
-        <v>-0.0004694798748219088</v>
+        <v>-0.009030388443326565</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -9973,7 +9973,7 @@
         <v>675</v>
       </c>
       <c r="B676">
-        <v>0.0006371362995069296</v>
+        <v>0.003084845042569052</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -9981,7 +9981,7 @@
         <v>676</v>
       </c>
       <c r="B677">
-        <v>-0.01319962436570816</v>
+        <v>-0.01314380040327748</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -9989,7 +9989,7 @@
         <v>677</v>
       </c>
       <c r="B678">
-        <v>0.001461855488927486</v>
+        <v>0.0160291330260422</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -9997,7 +9997,7 @@
         <v>678</v>
       </c>
       <c r="B679">
-        <v>0.0006093468959106598</v>
+        <v>8.532111744073202e-06</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -10005,7 +10005,7 @@
         <v>679</v>
       </c>
       <c r="B680">
-        <v>0.02412608181888182</v>
+        <v>0.01942005155388365</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -10013,7 +10013,7 @@
         <v>680</v>
       </c>
       <c r="B681">
-        <v>-0.003332774848127463</v>
+        <v>0.003599122512123954</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -10021,7 +10021,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>0.006023927791127761</v>
+        <v>0.0008686167610015139</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -10029,7 +10029,7 @@
         <v>682</v>
       </c>
       <c r="B683">
-        <v>0.004658534858974953</v>
+        <v>0.004164950372487394</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -10037,7 +10037,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>-0.008905229722333791</v>
+        <v>-0.008605841701131958</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -10045,7 +10045,7 @@
         <v>684</v>
       </c>
       <c r="B685">
-        <v>-0.01593749006238006</v>
+        <v>-0.005873674739052824</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -10053,7 +10053,7 @@
         <v>685</v>
       </c>
       <c r="B686">
-        <v>0.01387804348859381</v>
+        <v>0.01196876951059578</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -10061,7 +10061,7 @@
         <v>686</v>
       </c>
       <c r="B687">
-        <v>-0.02210055297228628</v>
+        <v>-0.01622617012303286</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -10069,7 +10069,7 @@
         <v>687</v>
       </c>
       <c r="B688">
-        <v>0.001635336469759466</v>
+        <v>0.004646552221954467</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -10077,7 +10077,7 @@
         <v>688</v>
       </c>
       <c r="B689">
-        <v>-0.006488759861381217</v>
+        <v>0.00203218642371179</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -10085,7 +10085,7 @@
         <v>689</v>
       </c>
       <c r="B690">
-        <v>0.0004198169645601014</v>
+        <v>-0.006102613893916378</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -10093,7 +10093,7 @@
         <v>690</v>
       </c>
       <c r="B691">
-        <v>0.02568077861140722</v>
+        <v>0.02086226273372335</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -10101,7 +10101,7 @@
         <v>691</v>
       </c>
       <c r="B692">
-        <v>-0.006212118128494135</v>
+        <v>-0.000124989792831993</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -10109,7 +10109,7 @@
         <v>692</v>
       </c>
       <c r="B693">
-        <v>-0.00639539256816893</v>
+        <v>-0.002407027331739332</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -10117,7 +10117,7 @@
         <v>693</v>
       </c>
       <c r="B694">
-        <v>0.004017813262514023</v>
+        <v>0.005873291224060028</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -10125,7 +10125,7 @@
         <v>694</v>
       </c>
       <c r="B695">
-        <v>-0.0143178143139753</v>
+        <v>-0.01245268625479973</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -10133,7 +10133,7 @@
         <v>695</v>
       </c>
       <c r="B696">
-        <v>0.002525954213092835</v>
+        <v>-0.002561835778857146</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -10141,7 +10141,7 @@
         <v>696</v>
       </c>
       <c r="B697">
-        <v>-0.00271669751035837</v>
+        <v>-0.004796926616488497</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -10149,7 +10149,7 @@
         <v>697</v>
       </c>
       <c r="B698">
-        <v>0.009536147654270476</v>
+        <v>-0.0005734012912146973</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -10157,7 +10157,7 @@
         <v>698</v>
       </c>
       <c r="B699">
-        <v>-0.005877142315444662</v>
+        <v>0.001100834333188813</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -10165,7 +10165,7 @@
         <v>699</v>
       </c>
       <c r="B700">
-        <v>0.01507347455688215</v>
+        <v>-0.002563884861170064</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -10173,7 +10173,7 @@
         <v>700</v>
       </c>
       <c r="B701">
-        <v>0.01233664362630128</v>
+        <v>-0.001019942836121153</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -10181,7 +10181,7 @@
         <v>701</v>
       </c>
       <c r="B702">
-        <v>-0.02196313128050802</v>
+        <v>-0.01734987541805499</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -10189,7 +10189,7 @@
         <v>702</v>
       </c>
       <c r="B703">
-        <v>-0.009337930481039699</v>
+        <v>-0.01524102145715129</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -10197,7 +10197,7 @@
         <v>703</v>
       </c>
       <c r="B704">
-        <v>-0.003242983468006072</v>
+        <v>0.002031811358784615</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -10205,7 +10205,7 @@
         <v>704</v>
       </c>
       <c r="B705">
-        <v>-0.02018801525894354</v>
+        <v>-0.01114153055980256</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -10213,7 +10213,7 @@
         <v>705</v>
       </c>
       <c r="B706">
-        <v>-0.01153726627580999</v>
+        <v>-0.003188835001896115</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -10221,7 +10221,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>0.01855974191223332</v>
+        <v>-0.001551105517656426</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -10229,7 +10229,7 @@
         <v>707</v>
       </c>
       <c r="B708">
-        <v>0.02299736133519142</v>
+        <v>0.007712741954603024</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -10237,7 +10237,7 @@
         <v>708</v>
       </c>
       <c r="B709">
-        <v>-0.006594311752685571</v>
+        <v>0.001903285777869448</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -10245,7 +10245,7 @@
         <v>709</v>
       </c>
       <c r="B710">
-        <v>0.01270292514821706</v>
+        <v>0.01067718913261455</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -10253,7 +10253,7 @@
         <v>710</v>
       </c>
       <c r="B711">
-        <v>-0.003114541800727066</v>
+        <v>-0.009470108563602638</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -10261,7 +10261,7 @@
         <v>711</v>
       </c>
       <c r="B712">
-        <v>-0.001486489969559092</v>
+        <v>0.00190725658072134</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -10269,7 +10269,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>-0.009400101920641838</v>
+        <v>-0.004328226070004122</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -10277,7 +10277,7 @@
         <v>713</v>
       </c>
       <c r="B714">
-        <v>0.01250414365350196</v>
+        <v>0.01002877445609396</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -10285,7 +10285,7 @@
         <v>714</v>
       </c>
       <c r="B715">
-        <v>-0.01077589047995341</v>
+        <v>-0.0132552735790723</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -10293,7 +10293,7 @@
         <v>715</v>
       </c>
       <c r="B716">
-        <v>0.005437628495333211</v>
+        <v>0.02076012000833252</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -10301,7 +10301,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>-0.00453642385744461</v>
+        <v>-0.002901084601722862</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -10309,7 +10309,7 @@
         <v>717</v>
       </c>
       <c r="B718">
-        <v>0.01905409633333652</v>
+        <v>0.03867517453807883</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -10317,7 +10317,7 @@
         <v>718</v>
       </c>
       <c r="B719">
-        <v>-0.0005661509952226856</v>
+        <v>-0.005868179326540842</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -10325,7 +10325,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>0.01672426146071204</v>
+        <v>0.01343879996917501</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -10333,7 +10333,7 @@
         <v>720</v>
       </c>
       <c r="B721">
-        <v>0.001963228145660451</v>
+        <v>0.007925463604083796</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -10341,7 +10341,7 @@
         <v>721</v>
       </c>
       <c r="B722">
-        <v>0.009920367804749631</v>
+        <v>-0.001383836400251083</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -10349,7 +10349,7 @@
         <v>722</v>
       </c>
       <c r="B723">
-        <v>0.006356391288915902</v>
+        <v>0.01153665285901739</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -10373,7 +10373,7 @@
         <v>725</v>
       </c>
       <c r="B726">
-        <v>0.008513135846137219</v>
+        <v>0.002828335643317299</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -10381,7 +10381,7 @@
         <v>726</v>
       </c>
       <c r="B727">
-        <v>0.006150050147436364</v>
+        <v>0.00149546311101474</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -10389,7 +10389,7 @@
         <v>727</v>
       </c>
       <c r="B728">
-        <v>-0.005975226932191726</v>
+        <v>-0.01104607115365301</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -10397,7 +10397,7 @@
         <v>728</v>
       </c>
       <c r="B729">
-        <v>0.003385892916166798</v>
+        <v>0.004775473813963624</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -10405,7 +10405,7 @@
         <v>729</v>
       </c>
       <c r="B730">
-        <v>0.003860222236694483</v>
+        <v>0.003379485386740946</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -10413,7 +10413,7 @@
         <v>730</v>
       </c>
       <c r="B731">
-        <v>0.0005064778881742594</v>
+        <v>0.005161405079696028</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -10421,7 +10421,7 @@
         <v>731</v>
       </c>
       <c r="B732">
-        <v>-7.443611549401202e-05</v>
+        <v>0.005501919465682218</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -10429,7 +10429,7 @@
         <v>732</v>
       </c>
       <c r="B733">
-        <v>-0.0124791416040863</v>
+        <v>-0.01413450534505614</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -10437,7 +10437,7 @@
         <v>733</v>
       </c>
       <c r="B734">
-        <v>-0.01364972865417769</v>
+        <v>-0.002451604674179012</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -10445,7 +10445,7 @@
         <v>734</v>
       </c>
       <c r="B735">
-        <v>0.006137020010772521</v>
+        <v>0.005899385208226977</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -10453,7 +10453,7 @@
         <v>735</v>
       </c>
       <c r="B736">
-        <v>-0.006916316994443786</v>
+        <v>-0.001413948929979536</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -10461,7 +10461,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>0.0007202550653892071</v>
+        <v>0.003053249794093774</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -10469,7 +10469,7 @@
         <v>737</v>
       </c>
       <c r="B738">
-        <v>-0.0004662260740180384</v>
+        <v>-0.008439103424399581</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -10477,7 +10477,7 @@
         <v>738</v>
       </c>
       <c r="B739">
-        <v>0.009534246276075619</v>
+        <v>0.01875629612984062</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -10485,7 +10485,7 @@
         <v>739</v>
       </c>
       <c r="B740">
-        <v>0.003675345913267801</v>
+        <v>0.007309945433980343</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -10493,7 +10493,7 @@
         <v>740</v>
       </c>
       <c r="B741">
-        <v>-0.005427004426809721</v>
+        <v>-0.002701175603179739</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -10501,7 +10501,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>0.02605122651065256</v>
+        <v>0.0224347916351308</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -10509,7 +10509,7 @@
         <v>742</v>
       </c>
       <c r="B743">
-        <v>-0.04896249682178472</v>
+        <v>-0.05853605122182145</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -10517,7 +10517,7 @@
         <v>743</v>
       </c>
       <c r="B744">
-        <v>-0.04899883983310215</v>
+        <v>-0.02664810754130232</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -10525,7 +10525,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>0.0159396519387515</v>
+        <v>0.01790350690469591</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -10533,7 +10533,7 @@
         <v>745</v>
       </c>
       <c r="B746">
-        <v>0.01508519650011707</v>
+        <v>0.01436111734170233</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -10541,7 +10541,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>0.0368444059206212</v>
+        <v>0.01098743702208593</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -10549,7 +10549,7 @@
         <v>747</v>
       </c>
       <c r="B748">
-        <v>-0.00111192037418161</v>
+        <v>-0.004317137285506404</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -10573,7 +10573,7 @@
         <v>750</v>
       </c>
       <c r="B751">
-        <v>0.003667611622709761</v>
+        <v>0.007716852380381605</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -10581,7 +10581,7 @@
         <v>751</v>
       </c>
       <c r="B752">
-        <v>0.01077179500498644</v>
+        <v>0.01000435821800974</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -10589,7 +10589,7 @@
         <v>752</v>
       </c>
       <c r="B753">
-        <v>0.02683687227384707</v>
+        <v>0.02508625176396971</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -10597,7 +10597,7 @@
         <v>753</v>
       </c>
       <c r="B754">
-        <v>-7.05136785483871e-05</v>
+        <v>0.003186055454189991</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -10605,7 +10605,7 @@
         <v>754</v>
       </c>
       <c r="B755">
-        <v>0.01035443891121361</v>
+        <v>0.01535019675761906</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -10613,7 +10613,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>0.00517397650197537</v>
+        <v>-0.003148897683697117</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -10621,7 +10621,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>0.005400297348513307</v>
+        <v>0.009371754608529971</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -10629,7 +10629,7 @@
         <v>757</v>
       </c>
       <c r="B758">
-        <v>-0.004619655725643447</v>
+        <v>-0.002200725813205929</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -10637,7 +10637,7 @@
         <v>758</v>
       </c>
       <c r="B759">
-        <v>0.002564352117834556</v>
+        <v>0.01680683395754535</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -10645,7 +10645,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>0.001173249498574696</v>
+        <v>-0.005889391780345649</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -10653,7 +10653,7 @@
         <v>760</v>
       </c>
       <c r="B761">
-        <v>0.03206627166502943</v>
+        <v>0.0118865609602581</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -10661,7 +10661,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>-0.006455594509633392</v>
+        <v>-0.001358866057824065</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -10669,7 +10669,7 @@
         <v>762</v>
       </c>
       <c r="B763">
-        <v>0.014765365527274</v>
+        <v>0.03427372901592349</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -10677,7 +10677,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>0.003698973978183697</v>
+        <v>0.02768239367429273</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -10685,7 +10685,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>0.01788246747364958</v>
+        <v>0.01285440089314973</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -10693,7 +10693,7 @@
         <v>765</v>
       </c>
       <c r="B766">
-        <v>-0.008196616654301374</v>
+        <v>-0.0006569516042117095</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -10701,7 +10701,7 @@
         <v>766</v>
       </c>
       <c r="B767">
-        <v>-0.007818761519232387</v>
+        <v>-0.002242171507497683</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -10709,7 +10709,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>-0.007704461604877796</v>
+        <v>0.005302511541966519</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -10717,7 +10717,7 @@
         <v>768</v>
       </c>
       <c r="B769">
-        <v>0.009683733470204058</v>
+        <v>-1.305256553803215e-05</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -10725,7 +10725,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>-0.02803068070418268</v>
+        <v>-0.02341721519486257</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -10733,7 +10733,7 @@
         <v>770</v>
       </c>
       <c r="B771">
-        <v>0.004704756308293097</v>
+        <v>0.001540523938383439</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -10741,7 +10741,7 @@
         <v>771</v>
       </c>
       <c r="B772">
-        <v>0.02744985221239281</v>
+        <v>0.00291932769478852</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -10749,7 +10749,7 @@
         <v>772</v>
       </c>
       <c r="B773">
-        <v>0.008682696806994499</v>
+        <v>0.01627774580438583</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -10757,7 +10757,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>0.003679696268139194</v>
+        <v>0.0009594925858620621</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -10765,7 +10765,7 @@
         <v>774</v>
       </c>
       <c r="B775">
-        <v>-0.03959272446640497</v>
+        <v>-0.03718633875711298</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -10773,7 +10773,7 @@
         <v>775</v>
       </c>
       <c r="B776">
-        <v>0.00122723943867031</v>
+        <v>0.00238431894962646</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -10781,7 +10781,7 @@
         <v>776</v>
       </c>
       <c r="B777">
-        <v>0.007060687668892338</v>
+        <v>0.01385502738771036</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -10789,7 +10789,7 @@
         <v>777</v>
       </c>
       <c r="B778">
-        <v>0.01082231466945416</v>
+        <v>0.02168526765005135</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -10797,7 +10797,7 @@
         <v>778</v>
       </c>
       <c r="B779">
-        <v>0.009436786433031199</v>
+        <v>0.00568962604944627</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -10805,7 +10805,7 @@
         <v>779</v>
       </c>
       <c r="B780">
-        <v>0.0007144276167936727</v>
+        <v>0.002097046109546408</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -10813,7 +10813,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>-0.05707854814532547</v>
+        <v>-0.06324719551449354</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -10821,7 +10821,7 @@
         <v>781</v>
       </c>
       <c r="B782">
-        <v>0.006538484794459188</v>
+        <v>0.01253327854579704</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -10829,7 +10829,7 @@
         <v>782</v>
       </c>
       <c r="B783">
-        <v>0.003225568755222638</v>
+        <v>0.001341120412279886</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -10837,7 +10837,7 @@
         <v>783</v>
       </c>
       <c r="B784">
-        <v>0.008865449735225017</v>
+        <v>0.007222526317488607</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -10845,7 +10845,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>0.0008401797594339224</v>
+        <v>0.004736833560867055</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -10853,7 +10853,7 @@
         <v>785</v>
       </c>
       <c r="B786">
-        <v>-0.007271865757540838</v>
+        <v>-0.008764484203657743</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -10861,7 +10861,7 @@
         <v>786</v>
       </c>
       <c r="B787">
-        <v>0.003523790200396512</v>
+        <v>0.0006502722639784284</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -10869,7 +10869,7 @@
         <v>787</v>
       </c>
       <c r="B788">
-        <v>0.005433083846897778</v>
+        <v>0.004976214195294357</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -10877,7 +10877,7 @@
         <v>788</v>
       </c>
       <c r="B789">
-        <v>0.002352002173420998</v>
+        <v>0.005410799489593197</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -10885,7 +10885,7 @@
         <v>789</v>
       </c>
       <c r="B790">
-        <v>-0.001026163962341942</v>
+        <v>-0.006848272503534279</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -10893,7 +10893,7 @@
         <v>790</v>
       </c>
       <c r="B791">
-        <v>0.0008176534639802856</v>
+        <v>0.002878568827687921</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -10901,7 +10901,7 @@
         <v>791</v>
       </c>
       <c r="B792">
-        <v>0.003317156061912888</v>
+        <v>0.002346743972557545</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -10909,7 +10909,7 @@
         <v>792</v>
       </c>
       <c r="B793">
-        <v>0.00312871291366998</v>
+        <v>0.006429182204644145</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -10917,7 +10917,7 @@
         <v>793</v>
       </c>
       <c r="B794">
-        <v>0.00038305472811868</v>
+        <v>-0.001627235341838762</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -10925,7 +10925,7 @@
         <v>794</v>
       </c>
       <c r="B795">
-        <v>-0.001565842886993905</v>
+        <v>-0.01519425767424645</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -10933,7 +10933,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>-0.007691312054588151</v>
+        <v>-0.02031248797818036</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -10941,7 +10941,7 @@
         <v>796</v>
       </c>
       <c r="B797">
-        <v>-0.02722830687527118</v>
+        <v>-0.03526836916987112</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -10949,7 +10949,7 @@
         <v>797</v>
       </c>
       <c r="B798">
-        <v>0.01570973985388638</v>
+        <v>0.01290440994355491</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -10957,7 +10957,7 @@
         <v>798</v>
       </c>
       <c r="B799">
-        <v>-0.01091327471169178</v>
+        <v>-0.01900640339783666</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -10965,7 +10965,7 @@
         <v>799</v>
       </c>
       <c r="B800">
-        <v>0.00515861461389596</v>
+        <v>0.01348049243685967</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -10973,7 +10973,7 @@
         <v>800</v>
       </c>
       <c r="B801">
-        <v>0.02023089436266298</v>
+        <v>0.01850107921614217</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -10981,7 +10981,7 @@
         <v>801</v>
       </c>
       <c r="B802">
-        <v>-0.0005607444679983084</v>
+        <v>-0.002281135703708365</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -10989,7 +10989,7 @@
         <v>802</v>
       </c>
       <c r="B803">
-        <v>0.009366994804481929</v>
+        <v>0.0156991564289876</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -10997,7 +10997,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>-0.001550050406398607</v>
+        <v>-0.001347044583849693</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -11005,7 +11005,7 @@
         <v>804</v>
       </c>
       <c r="B805">
-        <v>0.01931872624983504</v>
+        <v>0.02056760677882611</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -11013,7 +11013,7 @@
         <v>805</v>
       </c>
       <c r="B806">
-        <v>0.006788574620866709</v>
+        <v>0.01081571262781478</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -11021,7 +11021,7 @@
         <v>806</v>
       </c>
       <c r="B807">
-        <v>-0.0120387761230688</v>
+        <v>-0.005404164642068511</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -11029,7 +11029,7 @@
         <v>807</v>
       </c>
       <c r="B808">
-        <v>-0.0079728812146432</v>
+        <v>-0.01267621152514893</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -11037,7 +11037,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>0.0124541156910712</v>
+        <v>0.02044456294024891</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -11045,7 +11045,7 @@
         <v>809</v>
       </c>
       <c r="B810">
-        <v>0.003902114158198644</v>
+        <v>0.002520807426848793</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -11053,7 +11053,7 @@
         <v>810</v>
       </c>
       <c r="B811">
-        <v>-0.001518640386823932</v>
+        <v>-0.000324890315008722</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -11061,7 +11061,7 @@
         <v>811</v>
       </c>
       <c r="B812">
-        <v>0.00992395364611539</v>
+        <v>0.01454860523885714</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -11237,7 +11237,7 @@
         <v>833</v>
       </c>
       <c r="B834">
-        <v>-0.009776814150020456</v>
+        <v>-0.009482194504948485</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -11245,7 +11245,7 @@
         <v>834</v>
       </c>
       <c r="B835">
-        <v>-0.001377254988999645</v>
+        <v>-0.007278271826238922</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -11253,7 +11253,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>-0.006421369045484689</v>
+        <v>-0.006862710326362195</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -11261,7 +11261,7 @@
         <v>836</v>
       </c>
       <c r="B837">
-        <v>0.002823042987851798</v>
+        <v>-4.642281020110983e-05</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -11269,7 +11269,7 @@
         <v>837</v>
       </c>
       <c r="B838">
-        <v>0.03194393456617358</v>
+        <v>0.03070372871414435</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -11277,7 +11277,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>0.001617395147894752</v>
+        <v>0.004347779737674247</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -11285,7 +11285,7 @@
         <v>839</v>
       </c>
       <c r="B840">
-        <v>0.007331665424428323</v>
+        <v>0.003101098225969922</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -11293,7 +11293,7 @@
         <v>840</v>
       </c>
       <c r="B841">
-        <v>-0.0002382447748189116</v>
+        <v>-0.003581687424623946</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -11301,7 +11301,7 @@
         <v>841</v>
       </c>
       <c r="B842">
-        <v>0.02574243303154738</v>
+        <v>0.01778909738813199</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -11309,7 +11309,7 @@
         <v>842</v>
       </c>
       <c r="B843">
-        <v>0.002797437772013138</v>
+        <v>0.002968069163350117</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -11317,7 +11317,7 @@
         <v>843</v>
       </c>
       <c r="B844">
-        <v>0.005794410830438745</v>
+        <v>0.01181132131986001</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -11325,7 +11325,7 @@
         <v>844</v>
       </c>
       <c r="B845">
-        <v>0.008181002384572769</v>
+        <v>0.006747301052829949</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -11333,7 +11333,7 @@
         <v>845</v>
       </c>
       <c r="B846">
-        <v>0.005588475660437343</v>
+        <v>0.01445224215156766</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -11341,7 +11341,7 @@
         <v>846</v>
       </c>
       <c r="B847">
-        <v>-0.0001299927115272644</v>
+        <v>-0.006564375309703496</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -11349,7 +11349,7 @@
         <v>847</v>
       </c>
       <c r="B848">
-        <v>0.003462287235824379</v>
+        <v>0.004109661688655808</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -11357,7 +11357,7 @@
         <v>848</v>
       </c>
       <c r="B849">
-        <v>0.00425855619159652</v>
+        <v>0.002595847173522125</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -11365,7 +11365,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>0.001158734562843217</v>
+        <v>3.965079398993241e-05</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -11389,7 +11389,7 @@
         <v>852</v>
       </c>
       <c r="B853">
-        <v>-0.001323419060617176</v>
+        <v>0.0008096551077701412</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -11397,7 +11397,7 @@
         <v>853</v>
       </c>
       <c r="B854">
-        <v>0.002751580925198044</v>
+        <v>0.0012360337651559</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -11405,7 +11405,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>-0.0128761008772827</v>
+        <v>-0.01070461467743428</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -11413,7 +11413,7 @@
         <v>855</v>
       </c>
       <c r="B856">
-        <v>-0.03859368786286291</v>
+        <v>-0.04320811435065237</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -11421,7 +11421,7 @@
         <v>856</v>
       </c>
       <c r="B857">
-        <v>0.004293933804624257</v>
+        <v>0.005866769648787515</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -11429,7 +11429,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>0.02091146297988676</v>
+        <v>0.02021316775399151</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -11437,7 +11437,7 @@
         <v>858</v>
       </c>
       <c r="B859">
-        <v>0.002835883596797062</v>
+        <v>0.03099460890709696</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -11445,7 +11445,7 @@
         <v>859</v>
       </c>
       <c r="B860">
-        <v>0.02289994166417158</v>
+        <v>0.02137366887410323</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -11453,7 +11453,7 @@
         <v>860</v>
       </c>
       <c r="B861">
-        <v>0.001071340274831967</v>
+        <v>0.01596492499934102</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -11461,7 +11461,7 @@
         <v>861</v>
       </c>
       <c r="B862">
-        <v>-0.00545255497878797</v>
+        <v>-0.003253830736804149</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -11469,7 +11469,7 @@
         <v>862</v>
       </c>
       <c r="B863">
-        <v>-0.008630224954130034</v>
+        <v>-0.005719844503932934</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -11477,7 +11477,7 @@
         <v>863</v>
       </c>
       <c r="B864">
-        <v>0.01387538333185054</v>
+        <v>0.005861930269556302</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -11485,7 +11485,7 @@
         <v>864</v>
       </c>
       <c r="B865">
-        <v>-0.0007857916015268228</v>
+        <v>0.002881948635186921</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -11493,7 +11493,7 @@
         <v>865</v>
       </c>
       <c r="B866">
-        <v>-0.003282352151392694</v>
+        <v>0.01213171637551057</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -11501,7 +11501,7 @@
         <v>866</v>
       </c>
       <c r="B867">
-        <v>-0.003794534360237445</v>
+        <v>-0.01730504730950731</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -11509,7 +11509,7 @@
         <v>867</v>
       </c>
       <c r="B868">
-        <v>0.004274451621653841</v>
+        <v>0.005931001394567342</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -11517,7 +11517,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>0.009673767291368427</v>
+        <v>0.01644177928330795</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -11525,7 +11525,7 @@
         <v>869</v>
       </c>
       <c r="B870">
-        <v>-0.0006843239162679248</v>
+        <v>-0.001299155906905045</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -11533,7 +11533,7 @@
         <v>870</v>
       </c>
       <c r="B871">
-        <v>0.009218280132662359</v>
+        <v>-0.0004687733208872926</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -11541,7 +11541,7 @@
         <v>871</v>
       </c>
       <c r="B872">
-        <v>0.002571906809786631</v>
+        <v>0.008049930312612698</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -11549,7 +11549,7 @@
         <v>872</v>
       </c>
       <c r="B873">
-        <v>0.006851743780059553</v>
+        <v>0.0209489338192472</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -11557,7 +11557,7 @@
         <v>873</v>
       </c>
       <c r="B874">
-        <v>-0.01865388927098296</v>
+        <v>-0.02596033173602818</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -11565,7 +11565,7 @@
         <v>874</v>
       </c>
       <c r="B875">
-        <v>-0.0002362837257760816</v>
+        <v>0.005275378697556701</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -11573,7 +11573,7 @@
         <v>875</v>
       </c>
       <c r="B876">
-        <v>-0.01214112968817423</v>
+        <v>-0.01810893334126772</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -12605,7 +12605,7 @@
         <v>1004</v>
       </c>
       <c r="B1005">
-        <v>-0.01167450543932915</v>
+        <v>-0.01647203393738704</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -12629,7 +12629,7 @@
         <v>1007</v>
       </c>
       <c r="B1008">
-        <v>-0.007615361836808464</v>
+        <v>-0.00715458959455149</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -12637,7 +12637,7 @@
         <v>1008</v>
       </c>
       <c r="B1009">
-        <v>0.01748915912181313</v>
+        <v>0.01848385546603249</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -12645,7 +12645,7 @@
         <v>1009</v>
       </c>
       <c r="B1010">
-        <v>0.007462300957773283</v>
+        <v>0.01276961599715851</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -12653,7 +12653,7 @@
         <v>1010</v>
       </c>
       <c r="B1011">
-        <v>0.005872660596829549</v>
+        <v>0.006563343854405643</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -12661,7 +12661,7 @@
         <v>1011</v>
       </c>
       <c r="B1012">
-        <v>0.01436078075467466</v>
+        <v>0.0178052783928964</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -12669,7 +12669,7 @@
         <v>1012</v>
       </c>
       <c r="B1013">
-        <v>-0.003434679188279826</v>
+        <v>-0.0105938736262031</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -12677,7 +12677,7 @@
         <v>1013</v>
       </c>
       <c r="B1014">
-        <v>0.00638834354030274</v>
+        <v>0.01602955151531556</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -12685,7 +12685,7 @@
         <v>1014</v>
       </c>
       <c r="B1015">
-        <v>-0.002535378750209812</v>
+        <v>-0.00491894478521962</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -12693,7 +12693,7 @@
         <v>1015</v>
       </c>
       <c r="B1016">
-        <v>-0.0007107671086261452</v>
+        <v>0.003538065288706899</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -12701,7 +12701,7 @@
         <v>1016</v>
       </c>
       <c r="B1017">
-        <v>0.009474756548295785</v>
+        <v>0.006806727530426815</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -12709,7 +12709,7 @@
         <v>1017</v>
       </c>
       <c r="B1018">
-        <v>-0.002619033920605894</v>
+        <v>0.001691153743075922</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -12717,7 +12717,7 @@
         <v>1018</v>
       </c>
       <c r="B1019">
-        <v>-0.0001629302895672139</v>
+        <v>0.0009962339023195056</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -12725,7 +12725,7 @@
         <v>1019</v>
       </c>
       <c r="B1020">
-        <v>0.0037677497395689</v>
+        <v>0.003948124641970332</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -12733,7 +12733,7 @@
         <v>1020</v>
       </c>
       <c r="B1021">
-        <v>0.006029392577849739</v>
+        <v>-0.00223151979934326</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -12741,7 +12741,7 @@
         <v>1021</v>
       </c>
       <c r="B1022">
-        <v>0.0008581776633236624</v>
+        <v>0.01608379228457711</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -12749,7 +12749,7 @@
         <v>1022</v>
       </c>
       <c r="B1023">
-        <v>-0.01431742644774296</v>
+        <v>-0.02533221121866595</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -12757,7 +12757,7 @@
         <v>1023</v>
       </c>
       <c r="B1024">
-        <v>-0.002973209515232642</v>
+        <v>-0.002656132448217371</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -12765,7 +12765,7 @@
         <v>1024</v>
       </c>
       <c r="B1025">
-        <v>-0.003083504651209099</v>
+        <v>-0.007831403320289181</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -13293,7 +13293,7 @@
         <v>1090</v>
       </c>
       <c r="B1091">
-        <v>-0.002809142371724687</v>
+        <v>0.002255809013758486</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -13301,7 +13301,7 @@
         <v>1091</v>
       </c>
       <c r="B1092">
-        <v>0.009007760299103508</v>
+        <v>0.005330170752038893</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -13309,7 +13309,7 @@
         <v>1092</v>
       </c>
       <c r="B1093">
-        <v>0.005457013446417026</v>
+        <v>0.01846909558738998</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -13317,7 +13317,7 @@
         <v>1093</v>
       </c>
       <c r="B1094">
-        <v>-0.004398832946794971</v>
+        <v>0.001610377687443081</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -13325,7 +13325,7 @@
         <v>1094</v>
       </c>
       <c r="B1095">
-        <v>-0.0007477992239764757</v>
+        <v>0.005888317631388796</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -13333,7 +13333,7 @@
         <v>1095</v>
       </c>
       <c r="B1096">
-        <v>0.0008133901260078088</v>
+        <v>0.006006771204241221</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -13341,7 +13341,7 @@
         <v>1096</v>
       </c>
       <c r="B1097">
-        <v>-0.01047474136854228</v>
+        <v>-0.01081335526989383</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -13349,7 +13349,7 @@
         <v>1097</v>
       </c>
       <c r="B1098">
-        <v>0.0006789434757979985</v>
+        <v>0.01322762383254703</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -13357,7 +13357,7 @@
         <v>1098</v>
       </c>
       <c r="B1099">
-        <v>0.001855846225908949</v>
+        <v>0.002927447228877106</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -13365,7 +13365,7 @@
         <v>1099</v>
       </c>
       <c r="B1100">
-        <v>-0.006253508550578553</v>
+        <v>0.0006544845529355329</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -13373,7 +13373,7 @@
         <v>1100</v>
       </c>
       <c r="B1101">
-        <v>-0.004518016488989422</v>
+        <v>-0.008928589588948061</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -13381,7 +13381,7 @@
         <v>1101</v>
       </c>
       <c r="B1102">
-        <v>0.01359845450080785</v>
+        <v>0.0382842290106501</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -13389,7 +13389,7 @@
         <v>1102</v>
       </c>
       <c r="B1103">
-        <v>-0.004392421003704839</v>
+        <v>-0.004784743340066125</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -13397,7 +13397,7 @@
         <v>1103</v>
       </c>
       <c r="B1104">
-        <v>0.002724564021331629</v>
+        <v>0.008240818951994747</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -13405,7 +13405,7 @@
         <v>1104</v>
       </c>
       <c r="B1105">
-        <v>0.007654882314445086</v>
+        <v>0.01300881861230298</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -13413,7 +13413,7 @@
         <v>1105</v>
       </c>
       <c r="B1106">
-        <v>-0.001774791874157933</v>
+        <v>-0.004112005736271205</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -13437,7 +13437,7 @@
         <v>1108</v>
       </c>
       <c r="B1109">
-        <v>0.002563477626091757</v>
+        <v>-0.008650427512691005</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -13445,7 +13445,7 @@
         <v>1109</v>
       </c>
       <c r="B1110">
-        <v>0.008706569181711683</v>
+        <v>0.001380832442373674</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -13453,7 +13453,7 @@
         <v>1110</v>
       </c>
       <c r="B1111">
-        <v>-0.02934658000392826</v>
+        <v>-0.03955492205269926</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -13461,7 +13461,7 @@
         <v>1111</v>
       </c>
       <c r="B1112">
-        <v>0.009241792296307609</v>
+        <v>0.01225988753188465</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -13469,7 +13469,7 @@
         <v>1112</v>
       </c>
       <c r="B1113">
-        <v>-0.00504932690812779</v>
+        <v>0.0006885313871076769</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -13477,7 +13477,7 @@
         <v>1113</v>
       </c>
       <c r="B1114">
-        <v>-0.03032588248863783</v>
+        <v>-0.02841544613389871</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -13485,7 +13485,7 @@
         <v>1114</v>
       </c>
       <c r="B1115">
-        <v>-0.003974568166355387</v>
+        <v>-0.002433158369368511</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -13493,7 +13493,7 @@
         <v>1115</v>
       </c>
       <c r="B1116">
-        <v>0.01136797918383298</v>
+        <v>0.01108232345724361</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -13501,7 +13501,7 @@
         <v>1116</v>
       </c>
       <c r="B1117">
-        <v>0.0117970242441962</v>
+        <v>0.008930562271223649</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -13509,7 +13509,7 @@
         <v>1117</v>
       </c>
       <c r="B1118">
-        <v>-0.002048546586726309</v>
+        <v>0.00460969111413087</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -13517,7 +13517,7 @@
         <v>1118</v>
       </c>
       <c r="B1119">
-        <v>0.01063572298134571</v>
+        <v>0.005175242334498758</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -13525,7 +13525,7 @@
         <v>1119</v>
       </c>
       <c r="B1120">
-        <v>-0.002131280217003346</v>
+        <v>-0.001253552898168271</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -13533,7 +13533,7 @@
         <v>1120</v>
       </c>
       <c r="B1121">
-        <v>-0.001142248405342072</v>
+        <v>-0.001987641411100457</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -13541,7 +13541,7 @@
         <v>1121</v>
       </c>
       <c r="B1122">
-        <v>0.002198763289997898</v>
+        <v>-0.0006407035709071984</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -13549,7 +13549,7 @@
         <v>1122</v>
       </c>
       <c r="B1123">
-        <v>0.01855446562243963</v>
+        <v>0.006868554624827802</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -13557,7 +13557,7 @@
         <v>1123</v>
       </c>
       <c r="B1124">
-        <v>0.001850247832657872</v>
+        <v>0.001422197803088976</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -13565,7 +13565,7 @@
         <v>1124</v>
       </c>
       <c r="B1125">
-        <v>-0.008701422668027729</v>
+        <v>-0.0007314883796024591</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -13573,7 +13573,7 @@
         <v>1125</v>
       </c>
       <c r="B1126">
-        <v>-0.001684753612122157</v>
+        <v>-0.002662397961681545</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -13581,7 +13581,7 @@
         <v>1126</v>
       </c>
       <c r="B1127">
-        <v>-0.003964946547660964</v>
+        <v>-0.006406716202417059</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -13589,7 +13589,7 @@
         <v>1127</v>
       </c>
       <c r="B1128">
-        <v>-0.002153443152114613</v>
+        <v>-0.002249140289023628</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -13597,7 +13597,7 @@
         <v>1128</v>
       </c>
       <c r="B1129">
-        <v>-0.00421902998003783</v>
+        <v>-0.00123684705601207</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -13605,7 +13605,7 @@
         <v>1129</v>
       </c>
       <c r="B1130">
-        <v>0.003611979312616774</v>
+        <v>0.001410684254240521</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -13613,7 +13613,7 @@
         <v>1130</v>
       </c>
       <c r="B1131">
-        <v>0.000958519803173477</v>
+        <v>0.00135114654193802</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -13621,7 +13621,7 @@
         <v>1131</v>
       </c>
       <c r="B1132">
-        <v>-0.007661161621584188</v>
+        <v>-0.007227182656929241</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -13805,7 +13805,7 @@
         <v>1154</v>
       </c>
       <c r="B1155">
-        <v>-0.007966560352601683</v>
+        <v>-0.009286937138587324</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -13813,7 +13813,7 @@
         <v>1155</v>
       </c>
       <c r="B1156">
-        <v>-0.02197134379687233</v>
+        <v>-0.02810041302169662</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -13821,7 +13821,7 @@
         <v>1156</v>
       </c>
       <c r="B1157">
-        <v>-0.03647655379777302</v>
+        <v>-0.03753018001782046</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -13829,7 +13829,7 @@
         <v>1157</v>
       </c>
       <c r="B1158">
-        <v>0.006675174885732544</v>
+        <v>0.01333543295609953</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -13837,7 +13837,7 @@
         <v>1158</v>
       </c>
       <c r="B1159">
-        <v>-0.003270042493486889</v>
+        <v>-0.01056874616910753</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -13845,7 +13845,7 @@
         <v>1159</v>
       </c>
       <c r="B1160">
-        <v>-0.03822749865023983</v>
+        <v>-0.04485542400994768</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -13853,7 +13853,7 @@
         <v>1160</v>
       </c>
       <c r="B1161">
-        <v>0.00971603530264732</v>
+        <v>0.01620323916116335</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -13861,7 +13861,7 @@
         <v>1161</v>
       </c>
       <c r="B1162">
-        <v>0.01313531836442723</v>
+        <v>0.017091672663238</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
@@ -13869,7 +13869,7 @@
         <v>1162</v>
       </c>
       <c r="B1163">
-        <v>0.00361662457517154</v>
+        <v>0.005087144699305838</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -13877,7 +13877,7 @@
         <v>1163</v>
       </c>
       <c r="B1164">
-        <v>0.02344536298935625</v>
+        <v>0.025100071269651</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -13885,7 +13885,7 @@
         <v>1164</v>
       </c>
       <c r="B1165">
-        <v>0.01718198433674296</v>
+        <v>0.02142994458515535</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
@@ -13893,7 +13893,7 @@
         <v>1165</v>
       </c>
       <c r="B1166">
-        <v>-0.002263858334940631</v>
+        <v>-0.003617952466521603</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -13901,7 +13901,7 @@
         <v>1166</v>
       </c>
       <c r="B1167">
-        <v>0.00397127837069818</v>
+        <v>0.006201241666648098</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -13909,7 +13909,7 @@
         <v>1167</v>
       </c>
       <c r="B1168">
-        <v>-0.01061359067025591</v>
+        <v>-0.01026493736657855</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
@@ -13917,7 +13917,7 @@
         <v>1168</v>
       </c>
       <c r="B1169">
-        <v>-0.001816137999985454</v>
+        <v>-0.004905471532971766</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -13925,7 +13925,7 @@
         <v>1169</v>
       </c>
       <c r="B1170">
-        <v>0.01709869832597732</v>
+        <v>0.01909778702595199</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -13933,7 +13933,7 @@
         <v>1170</v>
       </c>
       <c r="B1171">
-        <v>0.009272576852470496</v>
+        <v>0.01817526210000136</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
@@ -13941,7 +13941,7 @@
         <v>1171</v>
       </c>
       <c r="B1172">
-        <v>-0.0119248559049168</v>
+        <v>-0.01035881897807486</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -13949,7 +13949,7 @@
         <v>1172</v>
       </c>
       <c r="B1173">
-        <v>-0.008953042685319395</v>
+        <v>-0.006049458561872102</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -13957,7 +13957,7 @@
         <v>1173</v>
       </c>
       <c r="B1174">
-        <v>-0.008436886650499782</v>
+        <v>-0.01060930002171971</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -13965,7 +13965,7 @@
         <v>1174</v>
       </c>
       <c r="B1175">
-        <v>0.00209058606530735</v>
+        <v>0.009731357280655412</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -13973,7 +13973,7 @@
         <v>1175</v>
       </c>
       <c r="B1176">
-        <v>0.01409566690021443</v>
+        <v>0.01276788747538715</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -13981,7 +13981,7 @@
         <v>1176</v>
       </c>
       <c r="B1177">
-        <v>0.0138937016503009</v>
+        <v>0.008796184321768244</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -13989,7 +13989,7 @@
         <v>1177</v>
       </c>
       <c r="B1178">
-        <v>0.01044131679472074</v>
+        <v>0.01428185828952733</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
@@ -13997,7 +13997,7 @@
         <v>1178</v>
       </c>
       <c r="B1179">
-        <v>0.002980632957859198</v>
+        <v>0.004070988571626702</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -14005,7 +14005,7 @@
         <v>1179</v>
       </c>
       <c r="B1180">
-        <v>0.01155397723693105</v>
+        <v>0.01504141945554156</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
@@ -14013,7 +14013,7 @@
         <v>1180</v>
       </c>
       <c r="B1181">
-        <v>0.002522416291021686</v>
+        <v>0.001633160878334196</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -14021,7 +14021,7 @@
         <v>1181</v>
       </c>
       <c r="B1182">
-        <v>-0.007226150106342075</v>
+        <v>-0.007586587083531628</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -14029,7 +14029,7 @@
         <v>1182</v>
       </c>
       <c r="B1183">
-        <v>-0.004592892347753666</v>
+        <v>-0.001286231325469138</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
@@ -14037,7 +14037,7 @@
         <v>1183</v>
       </c>
       <c r="B1184">
-        <v>-0.0003053663265748098</v>
+        <v>-0.001390298427648699</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
@@ -14045,7 +14045,7 @@
         <v>1184</v>
       </c>
       <c r="B1185">
-        <v>0.005357981575410859</v>
+        <v>0.0005322759097844429</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -14053,7 +14053,7 @@
         <v>1185</v>
       </c>
       <c r="B1186">
-        <v>-0.01277977668515763</v>
+        <v>-0.0151255831149138</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -14061,7 +14061,7 @@
         <v>1186</v>
       </c>
       <c r="B1187">
-        <v>0.006571887661912963</v>
+        <v>0.003766677021957829</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -14069,7 +14069,7 @@
         <v>1187</v>
       </c>
       <c r="B1188">
-        <v>-0.001594655824284188</v>
+        <v>-0.0004638857392772451</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -14077,7 +14077,7 @@
         <v>1188</v>
       </c>
       <c r="B1189">
-        <v>-0.02367089049857682</v>
+        <v>-0.02778787993214244</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
@@ -14085,7 +14085,7 @@
         <v>1189</v>
       </c>
       <c r="B1190">
-        <v>-0.02504655906601911</v>
+        <v>-0.02904869847491932</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -14093,7 +14093,7 @@
         <v>1190</v>
       </c>
       <c r="B1191">
-        <v>0.02670251596135539</v>
+        <v>0.03341108067708477</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -14101,7 +14101,7 @@
         <v>1191</v>
       </c>
       <c r="B1192">
-        <v>-0.01542125517862234</v>
+        <v>-0.02818000598792248</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
@@ -14109,7 +14109,7 @@
         <v>1192</v>
       </c>
       <c r="B1193">
-        <v>-0.008301793541757682</v>
+        <v>-0.01131568401195989</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -14117,7 +14117,7 @@
         <v>1193</v>
       </c>
       <c r="B1194">
-        <v>0.01589108380554525</v>
+        <v>0.01795019063332818</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -14125,7 +14125,7 @@
         <v>1194</v>
       </c>
       <c r="B1195">
-        <v>-0.02675884494733039</v>
+        <v>-0.02638221990702456</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -14293,7 +14293,7 @@
         <v>1215</v>
       </c>
       <c r="B1216">
-        <v>0.0118532024906934</v>
+        <v>-0.008536915398513496</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -14301,7 +14301,7 @@
         <v>1216</v>
       </c>
       <c r="B1217">
-        <v>-0.004260744083177135</v>
+        <v>0.01674577615186235</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -14309,7 +14309,7 @@
         <v>1217</v>
       </c>
       <c r="B1218">
-        <v>0.01085065600065267</v>
+        <v>0.03249962078083259</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
@@ -14317,7 +14317,7 @@
         <v>1218</v>
       </c>
       <c r="B1219">
-        <v>0.01264497433575453</v>
+        <v>0.01803320079640075</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -14325,7 +14325,7 @@
         <v>1219</v>
       </c>
       <c r="B1220">
-        <v>0.009407430096994315</v>
+        <v>0.006514521521354354</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
@@ -14333,7 +14333,7 @@
         <v>1220</v>
       </c>
       <c r="B1221">
-        <v>0.007787283121286446</v>
+        <v>0.01142885651967797</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -14341,7 +14341,7 @@
         <v>1221</v>
       </c>
       <c r="B1222">
-        <v>0.01303900644522442</v>
+        <v>0.01484751956190288</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -14349,7 +14349,7 @@
         <v>1222</v>
       </c>
       <c r="B1223">
-        <v>0.005480797358785452</v>
+        <v>0.005022405030613434</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -14357,7 +14357,7 @@
         <v>1223</v>
       </c>
       <c r="B1224">
-        <v>-0.006109241591257789</v>
+        <v>-0.004381714197370224</v>
       </c>
     </row>
     <row r="1225" spans="1:2">
@@ -14365,7 +14365,7 @@
         <v>1224</v>
       </c>
       <c r="B1225">
-        <v>-0.002378480547937063</v>
+        <v>-0.0049978488853623</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -14373,7 +14373,7 @@
         <v>1225</v>
       </c>
       <c r="B1226">
-        <v>-0.008295673308076167</v>
+        <v>0.003870236794289925</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -14381,7 +14381,7 @@
         <v>1226</v>
       </c>
       <c r="B1227">
-        <v>0.005042221043413236</v>
+        <v>0.008526312207631229</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -14389,7 +14389,7 @@
         <v>1227</v>
       </c>
       <c r="B1228">
-        <v>0.001442857882546525</v>
+        <v>0.001533300648647921</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -14397,7 +14397,7 @@
         <v>1228</v>
       </c>
       <c r="B1229">
-        <v>-0.002180613185606516</v>
+        <v>-0.001245394799653435</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -14405,7 +14405,7 @@
         <v>1229</v>
       </c>
       <c r="B1230">
-        <v>0.007140143220578351</v>
+        <v>0.009553480665391505</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -14413,7 +14413,7 @@
         <v>1230</v>
       </c>
       <c r="B1231">
-        <v>-0.003412052610302468</v>
+        <v>-0.006813260114503217</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -14421,7 +14421,7 @@
         <v>1231</v>
       </c>
       <c r="B1232">
-        <v>0.004187578910185476</v>
+        <v>-0.001789204481463075</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -14429,7 +14429,7 @@
         <v>1232</v>
       </c>
       <c r="B1233">
-        <v>-0.004487946473717761</v>
+        <v>0.001839780741212936</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -14437,7 +14437,7 @@
         <v>1233</v>
       </c>
       <c r="B1234">
-        <v>0.001461904141776672</v>
+        <v>-0.003195050723964295</v>
       </c>
     </row>
     <row r="1235" spans="1:2">
@@ -14461,7 +14461,7 @@
         <v>1236</v>
       </c>
       <c r="B1237">
-        <v>0.01054147585871166</v>
+        <v>0.005425488304589892</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -14469,7 +14469,7 @@
         <v>1237</v>
       </c>
       <c r="B1238">
-        <v>-0.006785644702086085</v>
+        <v>-0.009966333895720905</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -14477,7 +14477,7 @@
         <v>1238</v>
       </c>
       <c r="B1239">
-        <v>0.01826672121216972</v>
+        <v>0.01399811453197407</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -14485,7 +14485,7 @@
         <v>1239</v>
       </c>
       <c r="B1240">
-        <v>0.009621201268579797</v>
+        <v>0.01002560681223185</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -14493,7 +14493,7 @@
         <v>1240</v>
       </c>
       <c r="B1241">
-        <v>0.001249645310146213</v>
+        <v>-1.129459996548389e-06</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -14501,7 +14501,7 @@
         <v>1241</v>
       </c>
       <c r="B1242">
-        <v>0.008380353328314879</v>
+        <v>0.007544820365539376</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -14509,7 +14509,7 @@
         <v>1242</v>
       </c>
       <c r="B1243">
-        <v>-0.009568363842764552</v>
+        <v>-0.003279162926418646</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -14517,7 +14517,7 @@
         <v>1243</v>
       </c>
       <c r="B1244">
-        <v>0.000850055452009769</v>
+        <v>-0.0006048831240864621</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -14525,7 +14525,7 @@
         <v>1244</v>
       </c>
       <c r="B1245">
-        <v>-0.003859816102689857</v>
+        <v>-0.0003912394729243901</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -14533,7 +14533,7 @@
         <v>1245</v>
       </c>
       <c r="B1246">
-        <v>0.01083305008518535</v>
+        <v>0.009452698093057743</v>
       </c>
     </row>
     <row r="1247" spans="1:2">
@@ -14541,7 +14541,7 @@
         <v>1246</v>
       </c>
       <c r="B1247">
-        <v>0.0006134531483785977</v>
+        <v>-0.01297561743396979</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -14549,7 +14549,7 @@
         <v>1247</v>
       </c>
       <c r="B1248">
-        <v>-0.001002739744731094</v>
+        <v>0.0043275178283513</v>
       </c>
     </row>
     <row r="1249" spans="1:2">
@@ -14557,7 +14557,7 @@
         <v>1248</v>
       </c>
       <c r="B1249">
-        <v>-0.002672376619951263</v>
+        <v>-0.0024107475996315</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -14565,7 +14565,7 @@
         <v>1249</v>
       </c>
       <c r="B1250">
-        <v>-0.002943199350298281</v>
+        <v>0.0008219778147160921</v>
       </c>
     </row>
     <row r="1251" spans="1:2">
@@ -14573,7 +14573,7 @@
         <v>1250</v>
       </c>
       <c r="B1251">
-        <v>-0.004527080235959094</v>
+        <v>-0.006407314882662166</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -14581,7 +14581,7 @@
         <v>1251</v>
       </c>
       <c r="B1252">
-        <v>-0.008201458518847808</v>
+        <v>-0.007642689990169751</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -14589,7 +14589,7 @@
         <v>1252</v>
       </c>
       <c r="B1253">
-        <v>-0.007088832088281922</v>
+        <v>-0.00716371618363946</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -14597,7 +14597,7 @@
         <v>1253</v>
       </c>
       <c r="B1254">
-        <v>-0.007498797691531525</v>
+        <v>-0.005746341775090473</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -14605,7 +14605,7 @@
         <v>1254</v>
       </c>
       <c r="B1255">
-        <v>-0.02122534184636538</v>
+        <v>-0.01827029669214998</v>
       </c>
     </row>
     <row r="1256" spans="1:2">
@@ -14613,7 +14613,7 @@
         <v>1255</v>
       </c>
       <c r="B1256">
-        <v>0.006379510589577973</v>
+        <v>0.007841180143847366</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -14621,7 +14621,7 @@
         <v>1256</v>
       </c>
       <c r="B1257">
-        <v>-0.01829993792844431</v>
+        <v>-0.01680285468488917</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -14629,7 +14629,7 @@
         <v>1257</v>
       </c>
       <c r="B1258">
-        <v>0.01528444550799934</v>
+        <v>0.006649796125983975</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -14637,7 +14637,7 @@
         <v>1258</v>
       </c>
       <c r="B1259">
-        <v>0.001957575040243248</v>
+        <v>-0.002323112582298538</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -14821,7 +14821,7 @@
         <v>1281</v>
       </c>
       <c r="B1282">
-        <v>0.005434639092538491</v>
+        <v>-0.009098924045260245</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -14829,7 +14829,7 @@
         <v>1282</v>
       </c>
       <c r="B1283">
-        <v>0.01106142730901759</v>
+        <v>0.009335349874026568</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -14837,7 +14837,7 @@
         <v>1283</v>
       </c>
       <c r="B1284">
-        <v>0.003959827806106253</v>
+        <v>0.01029068296623898</v>
       </c>
     </row>
     <row r="1285" spans="1:2">
@@ -14845,7 +14845,7 @@
         <v>1284</v>
       </c>
       <c r="B1285">
-        <v>0.005855339972190942</v>
+        <v>0.006080693619989291</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -14853,7 +14853,7 @@
         <v>1285</v>
       </c>
       <c r="B1286">
-        <v>0.003880759466440562</v>
+        <v>0.00513998391495041</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -14861,7 +14861,7 @@
         <v>1286</v>
       </c>
       <c r="B1287">
-        <v>0.003206454871298556</v>
+        <v>0.005566805405701197</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -14869,7 +14869,7 @@
         <v>1287</v>
       </c>
       <c r="B1288">
-        <v>0.0004508839271922776</v>
+        <v>0.00593777899580351</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
@@ -14877,7 +14877,7 @@
         <v>1288</v>
       </c>
       <c r="B1289">
-        <v>-0.005402253821651224</v>
+        <v>-0.009959009206460112</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -14885,7 +14885,7 @@
         <v>1289</v>
       </c>
       <c r="B1290">
-        <v>-0.00369187784009079</v>
+        <v>-0.002279679596247496</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -14893,7 +14893,7 @@
         <v>1290</v>
       </c>
       <c r="B1291">
-        <v>0.006976643775044552</v>
+        <v>-9.797011223195589e-05</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -14901,7 +14901,7 @@
         <v>1291</v>
       </c>
       <c r="B1292">
-        <v>-0.008258327260872209</v>
+        <v>-0.01135836459821346</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -14909,7 +14909,7 @@
         <v>1292</v>
       </c>
       <c r="B1293">
-        <v>0.002017110166171996</v>
+        <v>0.00377330991147412</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -14917,7 +14917,7 @@
         <v>1293</v>
       </c>
       <c r="B1294">
-        <v>0.002152674905126222</v>
+        <v>-0.001497895264158864</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -14925,7 +14925,7 @@
         <v>1294</v>
       </c>
       <c r="B1295">
-        <v>0.002371299866328284</v>
+        <v>0.001593404963579127</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -14933,7 +14933,7 @@
         <v>1295</v>
       </c>
       <c r="B1296">
-        <v>0.006917254400188514</v>
+        <v>0.01443339504937469</v>
       </c>
     </row>
     <row r="1297" spans="1:2">
@@ -14941,7 +14941,7 @@
         <v>1296</v>
       </c>
       <c r="B1297">
-        <v>0.003209795043745097</v>
+        <v>-0.001336043474414047</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -14949,7 +14949,7 @@
         <v>1297</v>
       </c>
       <c r="B1298">
-        <v>-0.0005021409744308225</v>
+        <v>0.0001115478287366521</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -14957,7 +14957,7 @@
         <v>1298</v>
       </c>
       <c r="B1299">
-        <v>0.01292844455919257</v>
+        <v>0.009965379595742813</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -14965,7 +14965,7 @@
         <v>1299</v>
       </c>
       <c r="B1300">
-        <v>0.006912290366201819</v>
+        <v>0.006461466860766427</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -14973,7 +14973,7 @@
         <v>1300</v>
       </c>
       <c r="B1301">
-        <v>0.006966748606856887</v>
+        <v>-0.006778649469027528</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -14981,7 +14981,7 @@
         <v>1301</v>
       </c>
       <c r="B1302">
-        <v>0.008057198460873912</v>
+        <v>-0.002662356834926615</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -14989,7 +14989,7 @@
         <v>1302</v>
       </c>
       <c r="B1303">
-        <v>-0.008503303820475178</v>
+        <v>0.01347799508605679</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -14997,7 +14997,7 @@
         <v>1303</v>
       </c>
       <c r="B1304">
-        <v>0.001197517317735651</v>
+        <v>0.006439612713194848</v>
       </c>
     </row>
     <row r="1305" spans="1:2">
@@ -15157,7 +15157,7 @@
         <v>1323</v>
       </c>
       <c r="B1324">
-        <v>0.004165458262031651</v>
+        <v>0.003395264811004691</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -15165,7 +15165,7 @@
         <v>1324</v>
       </c>
       <c r="B1325">
-        <v>-0.003483201324578576</v>
+        <v>-0.003005407155833709</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -15173,7 +15173,7 @@
         <v>1325</v>
       </c>
       <c r="B1326">
-        <v>0.0009407334730480166</v>
+        <v>0.001315106964716894</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -15181,7 +15181,7 @@
         <v>1326</v>
       </c>
       <c r="B1327">
-        <v>-0.01955928746910024</v>
+        <v>-0.01925407362883094</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -15189,7 +15189,7 @@
         <v>1327</v>
       </c>
       <c r="B1328">
-        <v>-0.01259937155095844</v>
+        <v>-0.01319640444885647</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -15197,7 +15197,7 @@
         <v>1328</v>
       </c>
       <c r="B1329">
-        <v>-0.01264758399614254</v>
+        <v>-0.01162454076307153</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -15205,7 +15205,7 @@
         <v>1329</v>
       </c>
       <c r="B1330">
-        <v>0.001819412187782953</v>
+        <v>0.002049264850060965</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -15213,7 +15213,7 @@
         <v>1330</v>
       </c>
       <c r="B1331">
-        <v>-0.04919713110058915</v>
+        <v>-0.04845238700835297</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -15221,7 +15221,7 @@
         <v>1331</v>
       </c>
       <c r="B1332">
-        <v>-0.01514693251168111</v>
+        <v>-0.01614925261990008</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -15229,7 +15229,7 @@
         <v>1332</v>
       </c>
       <c r="B1333">
-        <v>0.0241167753620944</v>
+        <v>0.02327844010781453</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -15237,7 +15237,7 @@
         <v>1333</v>
       </c>
       <c r="B1334">
-        <v>-0.01555782366845469</v>
+        <v>-0.01417493945154524</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -15245,7 +15245,7 @@
         <v>1334</v>
       </c>
       <c r="B1335">
-        <v>0.03906189590055213</v>
+        <v>0.03604778152822575</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -15253,7 +15253,7 @@
         <v>1335</v>
       </c>
       <c r="B1336">
-        <v>-0.006734402790794024</v>
+        <v>-0.006677284854343932</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -15261,7 +15261,7 @@
         <v>1336</v>
       </c>
       <c r="B1337">
-        <v>-0.01978373211944743</v>
+        <v>-0.01902787785007131</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -15269,7 +15269,7 @@
         <v>1337</v>
       </c>
       <c r="B1338">
-        <v>-0.006720121098263124</v>
+        <v>-0.005983230247530237</v>
       </c>
     </row>
     <row r="1339" spans="1:2">
@@ -15277,7 +15277,7 @@
         <v>1338</v>
       </c>
       <c r="B1339">
-        <v>0.01229687554125254</v>
+        <v>0.01159388081203942</v>
       </c>
     </row>
     <row r="1340" spans="1:2">
@@ -15285,7 +15285,7 @@
         <v>1339</v>
       </c>
       <c r="B1340">
-        <v>0.001632085178092316</v>
+        <v>0.001565325490045944</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -15293,7 +15293,7 @@
         <v>1340</v>
       </c>
       <c r="B1341">
-        <v>-0.0540842628045672</v>
+        <v>-0.05418976896769758</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -15301,7 +15301,7 @@
         <v>1341</v>
       </c>
       <c r="B1342">
-        <v>0.0248577138635985</v>
+        <v>0.02304555080853474</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -15309,7 +15309,7 @@
         <v>1342</v>
       </c>
       <c r="B1343">
-        <v>-0.02349527890041799</v>
+        <v>-0.02331893380442181</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -15317,7 +15317,7 @@
         <v>1343</v>
       </c>
       <c r="B1344">
-        <v>-0.01569006827773657</v>
+        <v>-0.01518060164780554</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -15325,7 +15325,7 @@
         <v>1344</v>
       </c>
       <c r="B1345">
-        <v>0.01620474663251829</v>
+        <v>0.0174503739974346</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -15333,7 +15333,7 @@
         <v>1345</v>
       </c>
       <c r="B1346">
-        <v>0.02916555440199562</v>
+        <v>0.02907471597550601</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -15517,7 +15517,7 @@
         <v>1368</v>
       </c>
       <c r="B1369">
-        <v>0.01940866207816228</v>
+        <v>0.01937157279445872</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -15525,7 +15525,7 @@
         <v>1369</v>
       </c>
       <c r="B1370">
-        <v>-0.03354568364228906</v>
+        <v>-0.03348129720192282</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -15549,7 +15549,7 @@
         <v>1372</v>
       </c>
       <c r="B1373">
-        <v>-0.03179337481023085</v>
+        <v>-0.03177615345214689</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -15557,7 +15557,7 @@
         <v>1373</v>
       </c>
       <c r="B1374">
-        <v>0.01506188034016411</v>
+        <v>0.01504122921225899</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -15565,7 +15565,7 @@
         <v>1374</v>
       </c>
       <c r="B1375">
-        <v>-0.000487989599948581</v>
+        <v>-0.000493551742785604</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -15573,7 +15573,7 @@
         <v>1375</v>
       </c>
       <c r="B1376">
-        <v>0.008784808732145164</v>
+        <v>0.008818243923176049</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -15581,7 +15581,7 @@
         <v>1376</v>
       </c>
       <c r="B1377">
-        <v>0.003212534110023293</v>
+        <v>0.003136471489144973</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -15589,7 +15589,7 @@
         <v>1377</v>
       </c>
       <c r="B1378">
-        <v>-0.01938475523498721</v>
+        <v>-0.0194249635573356</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -15597,7 +15597,7 @@
         <v>1378</v>
       </c>
       <c r="B1379">
-        <v>-0.01923618611522237</v>
+        <v>-0.01932986741616292</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -15605,7 +15605,7 @@
         <v>1379</v>
       </c>
       <c r="B1380">
-        <v>0.00641866338691309</v>
+        <v>0.006324565747890329</v>
       </c>
     </row>
     <row r="1381" spans="1:2">
@@ -15613,7 +15613,7 @@
         <v>1380</v>
       </c>
       <c r="B1381">
-        <v>-0.01964807296702453</v>
+        <v>-0.01948758226621737</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -15621,7 +15621,7 @@
         <v>1381</v>
       </c>
       <c r="B1382">
-        <v>-0.009296686409690509</v>
+        <v>-0.00928067697079378</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -15629,7 +15629,7 @@
         <v>1382</v>
       </c>
       <c r="B1383">
-        <v>-0.03003466667431077</v>
+        <v>-0.03007360835000934</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -15637,7 +15637,7 @@
         <v>1383</v>
       </c>
       <c r="B1384">
-        <v>-0.02712620728879548</v>
+        <v>-0.02715144310007702</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -15645,7 +15645,7 @@
         <v>1384</v>
       </c>
       <c r="B1385">
-        <v>0.05256141460847188</v>
+        <v>0.05249364468295266</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -15653,7 +15653,7 @@
         <v>1385</v>
       </c>
       <c r="B1386">
-        <v>0.004173170969951217</v>
+        <v>0.004230253144168264</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -15661,7 +15661,7 @@
         <v>1386</v>
       </c>
       <c r="B1387">
-        <v>0.003136967397973334</v>
+        <v>0.003082761767742604</v>
       </c>
     </row>
     <row r="1388" spans="1:2">
@@ -15669,7 +15669,7 @@
         <v>1387</v>
       </c>
       <c r="B1388">
-        <v>0.007251139645543277</v>
+        <v>0.00727957004023195</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -15677,7 +15677,7 @@
         <v>1388</v>
       </c>
       <c r="B1389">
-        <v>-0.0006908152425477396</v>
+        <v>-0.002205572895894557</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -15685,7 +15685,7 @@
         <v>1389</v>
       </c>
       <c r="B1390">
-        <v>-0.03189738430958262</v>
+        <v>-0.0406022036910479</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -15693,7 +15693,7 @@
         <v>1390</v>
       </c>
       <c r="B1391">
-        <v>0.0473373715291752</v>
+        <v>0.04579456052204552</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -15701,7 +15701,7 @@
         <v>1391</v>
       </c>
       <c r="B1392">
-        <v>0.01671124898882215</v>
+        <v>0.01182257356509709</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -15709,7 +15709,7 @@
         <v>1392</v>
       </c>
       <c r="B1393">
-        <v>0.002799548609836196</v>
+        <v>0.008645212099719539</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -15717,7 +15717,7 @@
         <v>1393</v>
       </c>
       <c r="B1394">
-        <v>-0.000772804705691917</v>
+        <v>0.004838938284684128</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -15725,7 +15725,7 @@
         <v>1394</v>
       </c>
       <c r="B1395">
-        <v>0.004662962740576346</v>
+        <v>0.005752212442353997</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
@@ -15733,7 +15733,7 @@
         <v>1395</v>
       </c>
       <c r="B1396">
-        <v>0.01421251847935348</v>
+        <v>0.006583248011512248</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
